--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
@@ -230,6 +239,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>بودره اطفال نونو 100ملل</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>رباط ضغط 10سم</t>
   </si>
   <si>
@@ -239,6 +257,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>زيت نونو 200مل</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -257,9 +284,45 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شامبو نونو 200ملل </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات كوين حريمي </t>
+  </si>
+  <si>
+    <t>8:4</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
+    <t>قطن ازن كبير</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>لزق بثور</t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
@@ -272,7 +335,13 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 1:42 PM</t>
+    <t>مسك الرمان</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 23 September, 2025 1:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1342,21 +1411,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1368,14 +1437,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1385,14 +1454,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1401,14 +1470,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1418,14 +1487,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1434,14 +1503,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1451,11 +1520,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1467,20 +1536,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1507,7 +1576,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1524,7 +1593,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1540,7 +1609,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1573,7 +1642,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1583,11 +1652,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1599,14 +1668,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1616,49 +1685,313 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>716.45000000000005</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>87</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>88</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>23</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>53</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>89</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>91</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>21</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>53</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>92</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>94</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>95</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>53</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>96</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>98</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>63</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>53</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>80</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>99</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>100</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>53</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>101</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>23</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>53</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>60</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>104</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>105</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>53</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>106</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>108</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>109</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>53</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>96</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1156.4500000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>110</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>111</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>112</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1777,10 +2110,50 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -341,7 +341,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 1:54 PM</t>
+    <t>Tuesday, 23 September, 2025 1:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -341,7 +350,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 1:55 PM</t>
+    <t>Tuesday, 23 September, 2025 2:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1510,7 +1519,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1520,11 +1529,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1536,14 +1545,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1553,11 +1562,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1569,20 +1578,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1609,7 +1618,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1642,7 +1651,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1692,7 +1701,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1725,7 +1734,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1741,7 +1750,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1774,7 +1783,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1784,11 +1793,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1800,14 +1809,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1817,11 +1826,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1833,14 +1842,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1850,11 +1859,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1866,14 +1875,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1883,11 +1892,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1899,14 +1908,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1916,11 +1925,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1932,14 +1941,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1949,49 +1958,82 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1156.4500000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>110</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>111</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
         <v>112</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>53</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>99</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1304.4500000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>113</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>114</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>115</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2150,10 +2192,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -350,7 +350,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 2:08 PM</t>
+    <t>Tuesday, 23 September, 2025 3:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AVEROTHIAZIDE 5/20/12.5MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>25.7400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -158,6 +167,18 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -350,7 +371,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 3:07 PM</t>
+    <t>Tuesday, 23 September, 2025 3:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1024,7 +1045,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1034,14 +1055,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1050,14 +1071,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1067,14 +1088,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1083,14 +1104,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1100,14 +1121,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1116,14 +1137,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1133,11 +1154,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1149,14 +1170,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1166,14 +1187,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1182,14 +1203,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1206,7 +1227,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1222,7 +1243,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1232,14 +1253,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1248,14 +1269,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1272,7 +1293,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1288,7 +1309,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1305,7 +1326,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1321,7 +1342,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1354,13 +1375,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1371,7 +1392,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1387,7 +1408,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1420,24 +1441,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1446,14 +1467,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1470,7 +1491,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1486,24 +1507,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1512,14 +1533,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1529,14 +1550,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1545,14 +1566,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1562,14 +1583,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1585,7 +1606,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1595,14 +1616,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1611,20 +1632,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1635,7 +1656,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1651,24 +1672,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1677,31 +1698,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1710,31 +1731,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1743,31 +1764,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1776,31 +1797,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1809,20 +1830,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1833,7 +1854,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1849,24 +1870,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1875,31 +1896,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1908,31 +1929,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1941,31 +1962,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1974,66 +1995,132 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1304.4500000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>113</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>114</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
         <v>115</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>60</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>116</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>118</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>119</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>60</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>106</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1388.1400000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>120</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>121</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>122</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2197,10 +2284,20 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -179,6 +179,18 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -233,9 +245,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
   </si>
   <si>
@@ -269,6 +278,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>بودره اطفال نونو 100ملل</t>
   </si>
   <si>
@@ -281,12 +302,6 @@
     <t>رباط ضغط 10سم</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>زيت نونو 200مل</t>
   </si>
   <si>
@@ -371,7 +386,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 3:09 PM</t>
+    <t>Tuesday, 23 September, 2025 3:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1408,7 +1423,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1418,11 +1433,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1434,20 +1449,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1458,7 +1473,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1480,18 +1495,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1500,31 +1515,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1533,20 +1548,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1573,7 +1588,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,14 +1598,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1599,14 +1614,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1616,14 +1631,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1639,7 +1654,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1649,11 +1664,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>24</v>
@@ -1665,14 +1680,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1682,11 +1697,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>24</v>
@@ -1698,20 +1713,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1738,21 +1753,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1764,28 +1779,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -1797,31 +1812,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1830,7 +1845,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1843,15 +1858,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -1863,31 +1878,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,28 +1911,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -1929,28 +1944,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -1975,7 +1990,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2002,21 +2017,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2041,7 +2056,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2068,59 +2083,125 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1388.1400000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>119</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>120</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>64</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>121</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c t="s" r="Q40" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>123</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>124</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>64</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>111</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1436.1400000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>125</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>126</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>127</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2294,10 +2375,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -98,12 +98,21 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
@@ -170,13 +179,10 @@
     <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>265.00</t>
   </si>
   <si>
-    <t>53.0000</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -326,7 +332,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شامبو نونو 200ملل </t>
@@ -386,7 +392,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 3:24 PM</t>
+    <t>Tuesday, 23 September, 2025 3:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1192,7 +1198,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1202,11 +1208,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1218,14 +1224,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1235,14 +1241,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1251,14 +1257,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1291,7 +1297,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1301,14 +1307,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1317,14 +1323,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1341,7 +1347,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1357,7 +1363,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1374,7 +1380,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1390,7 +1396,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1400,11 +1406,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1416,14 +1422,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1433,14 +1439,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1449,14 +1455,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1466,11 +1472,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1482,31 +1488,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1515,7 +1521,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1528,18 +1534,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1548,31 +1554,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1581,28 +1587,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>24</v>
@@ -1614,14 +1620,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1631,14 +1637,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1647,14 +1653,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1664,14 +1670,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1680,14 +1686,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1697,11 +1703,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>24</v>
@@ -1713,14 +1719,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1730,11 +1736,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>24</v>
@@ -1746,28 +1752,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1779,28 +1785,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -1812,28 +1818,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -1845,28 +1851,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -1878,7 +1884,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1891,18 +1897,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1911,7 +1917,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1924,18 +1930,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1944,31 +1950,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1977,28 +1983,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>24</v>
@@ -2010,28 +2016,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2043,28 +2049,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
@@ -2076,28 +2082,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2109,28 +2115,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2142,66 +2148,99 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1436.1400000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>125</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
         <v>126</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>66</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>113</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1433.165</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
         <v>127</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>128</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>129</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2385,10 +2424,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>ISOMOISTY NASAL SPRAY 30 ML</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
@@ -392,7 +401,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 3:54 PM</t>
+    <t>Tuesday, 23 September, 2025 3:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1363,7 +1372,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1396,7 +1405,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1413,7 +1422,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1429,7 +1438,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1446,7 +1455,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1462,7 +1471,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1472,14 +1481,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1488,14 +1497,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1528,24 +1537,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1554,7 +1563,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1567,7 +1576,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1578,7 +1587,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1594,13 +1603,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1611,7 +1620,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1627,21 +1636,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>24</v>
@@ -1653,14 +1662,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1670,14 +1679,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1686,14 +1695,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1703,14 +1712,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1726,7 +1735,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1736,11 +1745,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>24</v>
@@ -1752,14 +1761,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1769,11 +1778,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1785,28 +1794,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -1818,20 +1827,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1858,21 +1867,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -1884,28 +1893,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>24</v>
@@ -1930,7 +1939,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1941,7 +1950,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1963,7 +1972,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1990,13 +1999,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2007,7 +2016,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2023,21 +2032,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2049,28 +2058,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
@@ -2082,28 +2091,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2115,28 +2124,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2148,28 +2157,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2181,66 +2190,99 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1433.165</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>127</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>128</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
         <v>129</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>69</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>116</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1523.165</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>130</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>131</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>132</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2429,10 +2471,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 3:59 PM</t>
+    <t>Tuesday, 23 September, 2025 4:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 4:58 PM</t>
+    <t>Tuesday, 23 September, 2025 4:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -365,6 +374,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>فرشه اسنان SENSODYNE</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -401,7 +419,16 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 4:59 PM</t>
+    <t>معجون سنسوداين 50 مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 23 September, 2025 5:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1702,7 +1729,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1712,14 +1739,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1728,14 +1755,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1745,14 +1772,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1768,7 +1795,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1778,11 +1805,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1794,14 +1821,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1811,11 +1838,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -1827,28 +1854,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -1860,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1900,7 +1927,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1910,11 +1937,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>24</v>
@@ -1926,14 +1953,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1943,11 +1970,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -1983,7 +2010,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2032,7 +2059,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2049,7 +2076,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2065,7 +2092,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2075,11 +2102,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
@@ -2091,14 +2118,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2108,11 +2135,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2124,14 +2151,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2141,11 +2168,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2157,14 +2184,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2174,11 +2201,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2190,14 +2217,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2207,11 +2234,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2223,14 +2250,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2240,49 +2267,148 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1523.165</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>130</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
         <v>131</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>69</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>132</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>134</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>135</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>69</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>119</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>136</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>131</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>69</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>137</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1798.165</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>139</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>140</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>141</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2476,10 +2602,25 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -374,15 +374,6 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>فرشه اسنان SENSODYNE</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -419,16 +410,10 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>معجون سنسوداين 50 مل</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 23 September, 2025 5:00 PM</t>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>Tuesday, 23 September, 2025 5:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2158,7 +2143,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2168,11 +2153,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2184,14 +2169,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2201,11 +2186,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2217,14 +2202,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2234,11 +2219,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2250,14 +2235,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2267,11 +2252,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>24</v>
@@ -2283,14 +2268,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2300,11 +2285,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2316,14 +2301,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2333,82 +2318,49 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="A46" s="7">
-        <v>40</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c t="s" r="C46" s="8">
+      <c r="P46" s="13">
+        <v>1723.165</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>134</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>135</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
         <v>136</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c t="s" r="H46" s="9">
-        <v>131</v>
-      </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c t="s" r="L46" s="10">
-        <v>69</v>
-      </c>
-      <c r="M46" s="10"/>
-      <c t="s" r="N46" s="8">
-        <v>137</v>
-      </c>
-      <c r="O46" s="8"/>
-      <c t="s" r="P46" s="11">
-        <v>138</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1798.165</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>139</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>140</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>141</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2612,15 +2564,10 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -413,7 +413,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 5:05 PM</t>
+    <t>Tuesday, 23 September, 2025 5:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -215,6 +227,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>PLAVIX 75MG 28 FILM COATED TAB</t>
+  </si>
+  <si>
+    <t>311.00</t>
+  </si>
+  <si>
+    <t>155.5000</t>
+  </si>
+  <si>
     <t xml:space="preserve">RELAX  CAPS</t>
   </si>
   <si>
@@ -239,12 +260,6 @@
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
@@ -341,7 +356,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1219,7 +1234,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1229,14 +1244,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1245,14 +1260,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1262,11 +1277,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1278,14 +1293,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1295,14 +1310,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1318,7 +1333,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1328,11 +1343,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>24</v>
@@ -1344,14 +1359,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1368,7 +1383,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1384,7 +1399,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1394,14 +1409,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1410,14 +1425,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1427,11 +1442,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>24</v>
@@ -1443,14 +1458,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1460,14 +1475,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1476,14 +1491,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1493,14 +1508,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1509,14 +1524,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1533,7 +1548,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1549,7 +1564,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1559,11 +1574,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1575,20 +1590,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1599,7 +1614,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1615,7 +1630,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1648,24 +1663,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1674,14 +1689,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1698,7 +1713,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1720,15 +1735,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>24</v>
@@ -1740,14 +1755,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1757,14 +1772,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1773,7 +1788,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1790,11 +1805,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1806,14 +1821,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1823,14 +1838,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1839,14 +1854,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1856,11 +1871,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -1872,28 +1887,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -1905,28 +1920,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>24</v>
@@ -1938,28 +1953,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -1971,28 +1986,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -2004,31 +2019,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2037,7 +2052,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2050,18 +2065,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2070,31 +2085,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2103,31 +2118,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2136,28 +2151,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2182,7 +2197,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2209,21 +2224,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2248,7 +2263,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2275,21 +2290,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2301,66 +2316,132 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>136</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>137</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>76</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>124</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
         <v>41</v>
       </c>
-      <c t="s" r="Q45" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1723.165</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>134</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>135</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>136</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>138</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>133</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>76</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>44</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1973.665</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>139</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>140</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>141</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2564,10 +2645,20 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -89,96 +89,111 @@
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>FLAZACOR 6 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>ISOMOISTY NASAL SPRAY 30 ML</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>EUTHYROX 100MCG 50 TAB.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>FLAZACOR 6 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>ISOMOISTY NASAL SPRAY 30 ML</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
     <t>90.0000</t>
   </si>
   <si>
+    <t>LEYLAC WHITENING EMULSION</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>299.00</t>
+  </si>
+  <si>
+    <t>299.0000</t>
+  </si>
+  <si>
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
@@ -206,6 +221,12 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>OST-MAP 60MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -239,9 +260,6 @@
     <t xml:space="preserve">RELAX  CAPS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -263,9 +281,6 @@
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -428,7 +443,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 5:13 PM</t>
+    <t>Tuesday, 23 September, 2025 5:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1432,7 +1447,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1442,11 +1457,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>24</v>
@@ -1458,28 +1473,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>24</v>
@@ -1491,14 +1506,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1508,14 +1523,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1524,14 +1539,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1541,14 +1556,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1557,14 +1572,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1574,14 +1589,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1590,14 +1605,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1607,14 +1622,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1630,7 +1645,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1640,11 +1655,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1656,20 +1671,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1680,7 +1695,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1696,7 +1711,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1729,24 +1744,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1755,14 +1770,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1772,14 +1787,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1788,28 +1803,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1821,14 +1836,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1838,14 +1853,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1854,14 +1869,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1871,11 +1886,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -1887,14 +1902,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1904,14 +1919,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1920,14 +1935,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,11 +1952,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>24</v>
@@ -1953,28 +1968,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -1986,28 +2001,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -2019,28 +2034,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>24</v>
@@ -2052,28 +2067,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2085,31 +2100,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2118,31 +2133,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,31 +2166,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,31 +2199,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,28 +2232,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2263,7 +2278,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2296,15 +2311,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2329,7 +2344,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2356,21 +2371,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>24</v>
@@ -2382,66 +2397,132 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>141</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>142</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>58</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>129</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>143</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>138</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>58</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>44</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>45</v>
       </c>
-      <c t="s" r="Q47" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1973.665</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>139</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>140</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
-        <v>141</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c t="s" r="Q49" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2326.665</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>144</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>145</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>146</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2655,10 +2736,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -71,6 +71,18 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -98,6 +110,18 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -140,9 +164,6 @@
     <t>EUTHYROX 100MCG 50 TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -158,6 +179,18 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -182,6 +215,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>LEYLAC WHITENING EMULSION</t>
   </si>
   <si>
@@ -425,9 +467,6 @@
     <t>مبرد قدم</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -443,7 +482,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 5:29 PM</t>
+    <t>Tuesday, 23 September, 2025 5:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1167,7 +1206,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1176,14 +1215,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1193,14 +1232,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1233,7 +1272,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1266,7 +1305,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1282,7 +1321,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1292,11 +1331,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1308,14 +1347,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1325,14 +1364,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1341,14 +1380,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1358,14 +1397,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1374,14 +1413,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1391,14 +1430,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1407,14 +1446,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1431,7 +1470,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1447,7 +1486,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1457,14 +1496,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1473,31 +1512,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1506,14 +1545,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1530,7 +1569,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1546,7 +1585,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1556,14 +1595,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1572,14 +1611,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1589,14 +1628,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1605,31 +1644,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1638,14 +1677,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1655,14 +1694,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1671,14 +1710,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1688,11 +1727,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1704,14 +1743,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1721,14 +1760,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1737,31 +1776,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1770,14 +1809,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1787,11 +1826,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1803,31 +1842,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1836,14 +1875,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1853,14 +1892,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1869,31 +1908,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1902,14 +1941,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1919,11 +1958,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1935,31 +1974,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1968,14 +2007,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1985,14 +2024,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2001,14 +2040,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2018,14 +2057,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2034,31 +2073,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2067,31 +2106,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2100,31 +2139,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2133,31 +2172,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2166,31 +2205,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2199,31 +2238,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2232,31 +2271,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2265,31 +2304,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2298,31 +2337,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2331,31 +2370,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2364,31 +2403,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2397,31 +2436,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2430,31 +2469,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2463,66 +2502,198 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>150</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>65</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>72</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>43</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
         <v>45</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2326.665</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>151</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>57</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>72</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>152</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>154</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>155</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>72</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>143</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>144</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>145</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>146</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q52" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>156</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>57</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>72</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>51</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2447.335</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>157</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>158</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>159</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2746,10 +2917,30 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -482,7 +482,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 5:42 PM</t>
+    <t>Tuesday, 23 September, 2025 5:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -236,6 +236,15 @@
     <t>299.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
@@ -254,6 +263,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>NEUROVIT 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -305,7 +323,7 @@
     <t>63.00</t>
   </si>
   <si>
-    <t>83.7900</t>
+    <t>146.7900</t>
   </si>
   <si>
     <t>RELAXON 30 CAP</t>
@@ -350,6 +368,9 @@
     <t>148.0000</t>
   </si>
   <si>
+    <t>TRUZYM TAB</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -482,7 +503,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 5:44 PM</t>
+    <t>Tuesday, 23 September, 2025 5:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1684,7 +1705,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1701,7 +1722,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1717,7 +1738,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1734,7 +1755,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1750,7 +1771,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1767,7 +1788,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1783,7 +1804,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1793,11 +1814,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>28</v>
@@ -1809,14 +1830,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1833,7 +1854,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1849,7 +1870,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1859,14 +1880,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1875,14 +1896,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1915,13 +1936,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1932,7 +1953,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1948,7 +1969,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1991,14 +2012,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2007,14 +2028,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2024,14 +2045,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2040,7 +2061,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2053,15 +2074,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>28</v>
@@ -2080,7 +2101,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2090,14 +2111,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2106,7 +2127,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2123,11 +2144,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>28</v>
@@ -2139,14 +2160,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2156,14 +2177,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2172,14 +2193,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2189,11 +2210,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>28</v>
@@ -2205,14 +2226,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2222,11 +2243,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>28</v>
@@ -2238,28 +2259,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>28</v>
@@ -2271,28 +2292,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>28</v>
@@ -2304,14 +2325,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2344,7 +2365,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2358,10 +2379,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2377,7 +2398,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2387,14 +2408,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2403,14 +2424,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2420,11 +2441,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>28</v>
@@ -2436,14 +2457,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2453,14 +2474,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2469,14 +2490,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2486,14 +2507,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2502,14 +2523,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2519,11 +2540,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>28</v>
@@ -2535,14 +2556,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2552,11 +2573,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>28</v>
@@ -2568,14 +2589,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2585,11 +2606,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>28</v>
@@ -2601,14 +2622,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2618,11 +2639,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
@@ -2634,14 +2655,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2651,49 +2672,148 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>158</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>57</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>72</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>159</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>161</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>162</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>72</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>150</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>163</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>57</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>72</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>51</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>52</v>
       </c>
-      <c t="s" r="Q53" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2447.335</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>157</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>158</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>159</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c t="s" r="Q56" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2814.335</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>164</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>165</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>166</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2937,10 +3057,25 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AUGRAM 228.5MG/5ML PD. FOR ORAL SUSPENSION 60 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AVEROTHIAZIDE 5/20/12.5MG 30 F.C. TABS</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
@@ -95,9 +110,6 @@
     <t>33.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
@@ -134,6 +146,15 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DECAL B12-N SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -146,6 +167,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -206,15 +236,24 @@
     <t>ISOMOISTY NASAL SPRAY 30 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
     <t>90.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -227,9 +266,6 @@
     <t>LEYLAC WHITENING EMULSION</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>299.00</t>
   </si>
   <si>
@@ -239,9 +275,6 @@
     <t>MOBITIL 15MG 10 TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -260,9 +293,6 @@
     <t>72.00</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>NEUROVIT 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -395,6 +425,24 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8220:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -431,10 +479,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>7:0</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -503,7 +548,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 5:47 PM</t>
+    <t>Tuesday, 23 September, 2025 5:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1177,7 +1222,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1187,14 +1232,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1203,14 +1248,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1220,14 +1265,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1236,14 +1281,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1253,14 +1298,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1293,7 +1338,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1326,7 +1371,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1392,7 +1437,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1408,7 +1453,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1451,11 +1496,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1467,14 +1512,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1484,14 +1529,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1500,14 +1545,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1517,14 +1562,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1533,14 +1578,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1550,14 +1595,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1573,7 +1618,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1583,11 +1628,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1599,14 +1644,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1616,14 +1661,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1632,14 +1677,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1649,14 +1694,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1665,31 +1710,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1698,14 +1743,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1715,14 +1760,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1731,20 +1776,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1755,7 +1800,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1771,7 +1816,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1810,7 +1855,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1821,7 +1866,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1837,7 +1882,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1847,14 +1892,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1863,14 +1908,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1880,14 +1925,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1903,7 +1948,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1913,14 +1958,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1929,14 +1974,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1946,11 +1991,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1962,7 +2007,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1979,14 +2024,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1995,31 +2040,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2028,14 +2073,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2045,14 +2090,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2061,31 +2106,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2101,7 +2146,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2118,7 +2163,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2134,13 +2179,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2151,7 +2196,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2167,7 +2212,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2177,14 +2222,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2193,31 +2238,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2233,24 +2278,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2259,14 +2304,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2276,14 +2321,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2292,14 +2337,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2309,14 +2354,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2325,31 +2370,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2358,31 +2403,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2391,31 +2436,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2424,31 +2469,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2457,20 +2502,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2478,10 +2523,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2497,24 +2542,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2523,20 +2568,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2547,7 +2592,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2563,24 +2608,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2589,31 +2634,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2622,31 +2667,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2655,31 +2700,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2688,31 +2733,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2721,31 +2766,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2761,59 +2806,257 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>167</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>34</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>78</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>146</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
         <v>52</v>
       </c>
-      <c t="s" r="Q56" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2814.335</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>164</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>168</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>169</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>78</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>170</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>172</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>12</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>78</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>50</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>173</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>67</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>78</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>174</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>176</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>177</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>78</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>165</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>166</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>178</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>67</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>78</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>61</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3024.0949999999998</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>179</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>180</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>181</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3072,10 +3315,40 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -347,6 +347,18 @@
     <t>155.5000</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
     <t xml:space="preserve">RELAX  CAPS</t>
   </si>
   <si>
@@ -530,6 +542,9 @@
     <t>لزق بثور</t>
   </si>
   <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
@@ -548,7 +563,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 5:52 PM</t>
+    <t>Tuesday, 23 September, 2025 6:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2179,24 +2194,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2205,31 +2220,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2238,31 +2253,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2271,28 +2286,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2304,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2321,11 +2336,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2337,14 +2352,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2354,14 +2369,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2370,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2387,14 +2402,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2403,7 +2418,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2416,15 +2431,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2436,28 +2451,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2542,7 +2557,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2552,11 +2567,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2568,24 +2583,24 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2608,7 +2623,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2618,11 +2633,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2634,14 +2649,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2651,11 +2666,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2667,14 +2682,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2684,11 +2699,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2700,7 +2715,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2717,14 +2732,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2733,7 +2748,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2750,14 +2765,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2766,14 +2781,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2783,14 +2798,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2799,14 +2814,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2839,7 +2854,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2849,11 +2864,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2865,14 +2880,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2882,11 +2897,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2905,7 +2920,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2915,11 +2930,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2931,14 +2946,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2948,11 +2963,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2964,14 +2979,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2981,11 +2996,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3014,49 +3029,115 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>181</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>182</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>78</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>169</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>183</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>67</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>78</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>61</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>62</v>
       </c>
-      <c t="s" r="Q62" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3024.0949999999998</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>179</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>180</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>181</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3081.6950000000002</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>184</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>185</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>186</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3345,10 +3426,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -563,7 +563,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 6:02 PM</t>
+    <t>Tuesday, 23 September, 2025 6:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>31.0000</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
@@ -2524,7 +2527,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2534,14 +2537,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2550,14 +2553,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2567,11 +2570,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2583,14 +2586,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2600,11 +2603,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2616,28 +2619,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2649,14 +2652,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2666,11 +2669,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2682,14 +2685,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2699,11 +2702,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2722,7 +2725,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2732,11 +2735,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2748,7 +2751,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2765,14 +2768,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2781,7 +2784,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2798,14 +2801,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,14 +2817,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2831,14 +2834,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2847,14 +2850,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2864,11 +2867,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2880,14 +2883,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2897,11 +2900,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2920,7 +2923,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2930,11 +2933,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2946,14 +2949,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2963,11 +2966,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2996,11 +2999,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3019,7 +3022,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3029,11 +3032,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3045,14 +3048,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3062,11 +3065,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3078,14 +3081,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3095,49 +3098,82 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>184</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>67</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>78</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>61</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>62</v>
       </c>
-      <c t="s" r="Q64" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3081.6950000000002</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>184</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3099.6950000000002</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
         <v>185</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
         <v>186</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>187</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3436,10 +3472,15 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -566,7 +566,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 6:07 PM</t>
+    <t>Tuesday, 23 September, 2025 6:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BG SKIN TONERAC NET</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -176,6 +188,24 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -233,6 +263,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t xml:space="preserve">INIZIO RINNOVO HAIR  LOSS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>ISOMOISTY NASAL SPRAY 30 ML</t>
   </si>
   <si>
@@ -245,9 +284,6 @@
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -566,7 +602,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 6:08 PM</t>
+    <t>Tuesday, 23 September, 2025 6:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1273,24 +1309,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1299,14 +1335,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1356,7 +1392,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1455,7 +1491,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1471,7 +1507,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1481,14 +1517,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1497,14 +1533,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1537,7 +1573,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1547,14 +1583,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1563,7 +1599,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1580,14 +1616,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1596,14 +1632,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1613,14 +1649,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1629,14 +1665,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1646,11 +1682,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1662,14 +1698,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1679,14 +1715,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1695,14 +1731,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1712,14 +1748,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1735,7 +1771,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1745,14 +1781,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1761,14 +1797,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1778,11 +1814,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1794,28 +1830,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1827,14 +1863,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1851,7 +1887,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1873,7 +1909,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1910,14 +1946,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1926,28 +1962,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1959,14 +1995,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1976,14 +2012,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1992,28 +2028,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2025,14 +2061,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2042,14 +2078,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2058,14 +2094,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2075,11 +2111,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2091,14 +2127,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2108,11 +2144,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2131,7 +2167,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2148,7 +2184,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2164,7 +2200,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2181,7 +2217,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2197,7 +2233,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2207,14 +2243,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2223,31 +2259,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2256,14 +2292,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2273,11 +2309,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2289,31 +2325,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2322,14 +2358,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2339,14 +2375,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2355,7 +2391,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2368,18 +2404,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2388,14 +2424,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2405,11 +2441,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2421,7 +2457,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2434,15 +2470,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2454,28 +2490,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2487,14 +2523,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2504,11 +2540,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2520,14 +2556,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2537,11 +2573,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2553,14 +2589,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2570,11 +2606,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2586,28 +2622,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2619,14 +2655,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2636,11 +2672,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2652,31 +2688,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2685,28 +2721,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2718,28 +2754,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2751,7 +2787,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2764,15 +2800,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2784,31 +2820,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2817,31 +2853,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2850,28 +2886,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2883,20 +2919,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2923,24 +2959,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2949,20 +2985,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -2973,7 +3009,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2989,21 +3025,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3015,28 +3051,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3048,28 +3084,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3081,28 +3117,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3114,66 +3150,198 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>190</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>12</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>23</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>187</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>191</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>77</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>23</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>192</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
         <v>62</v>
       </c>
-      <c t="s" r="Q65" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3099.6950000000002</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>185</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>186</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>187</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>194</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>195</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>23</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>182</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>196</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>77</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>23</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>71</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3796.6950000000002</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>197</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>198</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>199</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3477,10 +3645,30 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">INIZIO RINNOVO HAIR  LOSS</t>
   </si>
   <si>
@@ -602,7 +611,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 6:25 PM</t>
+    <t>Tuesday, 23 September, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1942,7 +1951,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1969,13 +1978,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2002,13 +2011,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2035,13 +2044,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2074,18 +2083,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2094,14 +2103,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2111,14 +2120,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2134,7 +2143,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2148,10 +2157,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2160,14 +2169,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2177,14 +2186,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2200,7 +2209,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2217,7 +2226,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2233,7 +2242,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2259,14 +2268,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2276,14 +2285,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2332,7 +2341,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2365,7 +2374,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2375,11 +2384,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2391,20 +2400,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2415,7 +2424,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2431,13 +2440,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2448,7 +2457,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2464,24 +2473,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2490,28 +2499,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2530,7 +2539,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2563,7 +2572,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2635,15 +2644,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2655,28 +2664,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2705,14 +2714,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2721,14 +2730,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2738,14 +2747,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2754,14 +2763,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2771,11 +2780,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2787,14 +2796,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2804,11 +2813,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2820,28 +2829,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2853,14 +2862,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2893,7 +2902,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2903,11 +2912,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2919,14 +2928,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2936,11 +2945,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2969,14 +2978,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2985,7 +2994,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3002,14 +3011,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>176</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3025,7 +3034,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3042,7 +3051,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3058,7 +3067,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3068,11 +3077,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3084,14 +3093,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3101,11 +3110,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3117,14 +3126,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3134,11 +3143,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3150,14 +3159,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3167,11 +3176,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3183,7 +3192,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3200,11 +3209,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3216,14 +3225,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3233,11 +3242,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3256,7 +3265,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3266,11 +3275,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3282,14 +3291,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3299,49 +3308,82 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>199</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>77</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>23</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>71</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>72</v>
       </c>
-      <c t="s" r="Q69" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3796.6950000000002</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>197</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>198</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>199</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3861.6950000000002</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>200</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>201</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>202</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3665,10 +3707,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -611,7 +611,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 6:36 PM</t>
+    <t>Tuesday, 23 September, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -185,159 +185,165 @@
     <t>36.00</t>
   </si>
   <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>FLAZACOR 6 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INIZIO RINNOVO HAIR  LOSS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>ISOMOISTY NASAL SPRAY 30 ML</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LEYLAC WHITENING EMULSION</t>
+  </si>
+  <si>
+    <t>299.00</t>
+  </si>
+  <si>
+    <t>299.0000</t>
+  </si>
+  <si>
+    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
     <t>23.7600</t>
   </si>
   <si>
-    <t>DIMICAP FACIAL WASH 250 ML</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>EUTHYROX 100MCG 50 TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>FLAZACOR 6 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYPSUM  SYRUP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INIZIO RINNOVO HAIR  LOSS</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>ISOMOISTY NASAL SPRAY 30 ML</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LEYLAC WHITENING EMULSION</t>
-  </si>
-  <si>
-    <t>299.00</t>
-  </si>
-  <si>
-    <t>299.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>NEUROVIT 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -539,7 +545,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -569,9 +578,6 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -611,7 +617,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 7:17 PM</t>
+    <t>Tuesday, 23 September, 2025 7:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1615,7 +1621,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1632,7 +1638,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1951,15 +1957,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1971,7 +1977,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1984,15 +1990,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2004,28 +2010,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2037,7 +2043,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2050,18 +2056,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2070,28 +2076,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2103,7 +2109,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2116,18 +2122,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2136,14 +2142,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2153,11 +2159,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2169,14 +2175,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2186,14 +2192,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2202,14 +2208,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2219,11 +2225,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2235,14 +2241,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2252,14 +2258,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2268,14 +2274,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2285,11 +2291,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2301,14 +2307,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2318,14 +2324,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2334,14 +2340,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2351,14 +2357,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2367,14 +2373,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2384,11 +2390,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2400,14 +2406,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2417,11 +2423,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2433,31 +2439,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2466,14 +2472,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2483,11 +2489,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2499,7 +2505,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2516,14 +2522,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2532,14 +2538,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2549,14 +2555,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2565,7 +2571,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2578,15 +2584,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2598,14 +2604,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2615,14 +2621,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2631,7 +2637,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2648,11 +2654,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2664,31 +2670,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2697,14 +2703,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2714,11 +2720,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2730,31 +2736,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2763,14 +2769,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2780,11 +2786,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2796,14 +2802,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2813,14 +2819,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2829,14 +2835,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2846,11 +2852,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2862,28 +2868,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2895,28 +2901,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2928,14 +2934,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2945,11 +2951,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2961,14 +2967,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2978,11 +2984,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2994,14 +3000,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3011,14 +3017,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3027,7 +3033,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3044,14 +3050,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3060,14 +3066,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3077,14 +3083,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3093,14 +3099,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3110,14 +3116,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3126,14 +3132,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3143,11 +3149,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3159,14 +3165,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3176,11 +3182,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3192,14 +3198,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3209,11 +3215,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3225,14 +3231,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3242,11 +3248,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3265,7 +3271,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3275,11 +3281,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3291,14 +3297,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3308,11 +3314,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3324,7 +3330,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3341,49 +3347,115 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>199</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>200</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>23</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>188</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>201</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>77</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>23</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>71</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>72</v>
       </c>
-      <c t="s" r="Q70" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3861.6950000000002</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>200</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>201</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>4054.4549999999999</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
         <v>202</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>203</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>204</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3712,10 +3784,20 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -461,6 +461,12 @@
     <t>148.0000</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>TRUZYM TAB</t>
   </si>
   <si>
@@ -617,7 +623,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 7:25 PM</t>
+    <t>Tuesday, 23 September, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2743,21 +2749,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2769,28 +2775,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2802,14 +2808,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2819,14 +2825,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2835,14 +2841,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2852,14 +2858,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2868,14 +2874,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2885,11 +2891,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2901,14 +2907,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2918,7 +2924,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2941,21 +2947,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2967,14 +2973,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2984,11 +2990,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3000,14 +3006,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3017,11 +3023,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3033,14 +3039,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3050,11 +3056,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3066,7 +3072,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3083,14 +3089,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3099,7 +3105,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3116,14 +3122,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3132,14 +3138,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3149,14 +3155,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3165,14 +3171,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3182,11 +3188,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3198,14 +3204,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3215,11 +3221,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3231,14 +3237,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3248,11 +3254,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3264,14 +3270,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3281,11 +3287,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3297,7 +3303,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3314,11 +3320,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3330,14 +3336,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3347,11 +3353,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3363,14 +3369,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3380,11 +3386,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3403,7 +3409,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3413,49 +3419,82 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>203</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>77</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>23</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>71</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
         <v>72</v>
       </c>
-      <c t="s" r="Q72" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>4054.4549999999999</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>202</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>203</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>4082.4549999999999</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
         <v>204</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>205</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>206</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3794,10 +3833,15 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -311,6 +320,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>LEYLAC WHITENING EMULSION</t>
   </si>
   <si>
@@ -389,6 +407,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t xml:space="preserve">PEA  400 MGTAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>PLAVIX 75MG 28 FILM COATED TAB</t>
   </si>
   <si>
@@ -458,9 +485,6 @@
     <t>148.00</t>
   </si>
   <si>
-    <t>148.0000</t>
-  </si>
-  <si>
     <t>TREFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
@@ -563,7 +587,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شامبو نونو 200ملل </t>
@@ -623,7 +647,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 7:26 PM</t>
+    <t>Tuesday, 23 September, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1429,7 +1453,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1439,14 +1463,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1455,14 +1479,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1472,11 +1496,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1488,14 +1512,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1505,11 +1529,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1521,14 +1545,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1538,14 +1562,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1554,14 +1578,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1578,7 +1602,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1594,7 +1618,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1604,11 +1628,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1620,14 +1644,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1644,7 +1668,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1660,7 +1684,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1677,7 +1701,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1693,7 +1717,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1726,7 +1750,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1743,7 +1767,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1759,7 +1783,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1769,11 +1793,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1785,14 +1809,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1802,14 +1826,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1858,7 +1882,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1868,11 +1892,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1884,14 +1908,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1901,14 +1925,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1917,20 +1941,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1941,7 +1965,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1963,15 +1987,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1983,7 +2007,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1996,15 +2020,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2029,7 +2053,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2056,13 +2080,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2073,7 +2097,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2089,13 +2113,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2106,7 +2130,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2122,13 +2146,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2155,7 +2179,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2165,14 +2189,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2181,7 +2205,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2194,18 +2218,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2214,14 +2238,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2231,11 +2255,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2247,14 +2271,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2264,14 +2288,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2280,14 +2304,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2297,11 +2321,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2320,7 +2344,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2337,7 +2361,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2353,7 +2377,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2363,11 +2387,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2379,14 +2403,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2403,7 +2427,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2419,7 +2443,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2429,14 +2453,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2445,14 +2469,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2485,7 +2509,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2495,11 +2519,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2511,14 +2535,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2528,14 +2552,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2544,14 +2568,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2561,11 +2585,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2577,31 +2601,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2610,31 +2634,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2643,14 +2667,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2660,14 +2684,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2676,31 +2700,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2709,14 +2733,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2726,11 +2750,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2742,14 +2766,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2759,11 +2783,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2775,31 +2799,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2808,14 +2832,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2825,11 +2849,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2841,14 +2865,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2858,14 +2882,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2874,28 +2898,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2907,14 +2931,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2924,11 +2948,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2940,14 +2964,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2957,14 +2981,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2973,28 +2997,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3006,28 +3030,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3039,28 +3063,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3079,7 +3103,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3089,11 +3113,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3105,14 +3129,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3122,14 +3146,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3138,14 +3162,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3155,14 +3179,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3171,14 +3195,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3188,11 +3212,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3204,14 +3228,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3221,14 +3245,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3237,14 +3261,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3254,14 +3278,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3270,14 +3294,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3310,7 +3334,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3320,11 +3344,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3336,14 +3360,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3353,11 +3377,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3369,14 +3393,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3386,11 +3410,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3402,14 +3426,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3419,11 +3443,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3435,14 +3459,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3452,49 +3476,148 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>4082.4549999999999</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>204</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>205</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>206</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>80</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>23</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>207</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>209</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>210</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>23</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>198</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>211</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>80</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>23</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>74</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4324.5349999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>212</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>213</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>214</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3838,10 +3961,25 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -647,7 +647,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 7:28 PM</t>
+    <t>Tuesday, 23 September, 2025 7:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CONVENTIN XR 300MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
@@ -206,6 +215,15 @@
     <t>194.0000</t>
   </si>
   <si>
+    <t>DIXVIT 10.000 I.U. 30 TABS.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -467,6 +485,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>SORAL 30 MG 30CAPS</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>42.5700</t>
+  </si>
+  <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
@@ -647,7 +674,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 7:33 PM</t>
+    <t>Tuesday, 23 September, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1519,7 +1546,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1529,14 +1556,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1545,14 +1572,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1562,11 +1589,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1578,14 +1605,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1595,14 +1622,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1611,14 +1638,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1635,7 +1662,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1651,7 +1678,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1661,11 +1688,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1677,14 +1704,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1701,7 +1728,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1717,7 +1744,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1734,7 +1761,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1750,7 +1777,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1783,7 +1810,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1816,7 +1843,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1826,14 +1853,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1842,14 +1869,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1859,14 +1886,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1875,14 +1902,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1892,14 +1919,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1915,7 +1942,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1925,11 +1952,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1941,14 +1968,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1958,14 +1985,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1974,28 +2001,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2007,14 +2034,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2024,14 +2051,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2040,7 +2067,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2057,11 +2084,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2073,7 +2100,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2090,11 +2117,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2113,7 +2140,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2130,7 +2157,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2146,7 +2173,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2179,13 +2206,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2196,7 +2223,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2212,13 +2239,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2245,7 +2272,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2255,14 +2282,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2271,7 +2298,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2284,18 +2311,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2304,14 +2331,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2321,11 +2348,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2337,14 +2364,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2354,14 +2381,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2370,14 +2397,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2387,11 +2414,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2410,7 +2437,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2427,7 +2454,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2443,7 +2470,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2453,11 +2480,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2469,14 +2496,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2493,7 +2520,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2509,7 +2536,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2519,14 +2546,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2535,20 +2562,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2575,7 +2602,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2608,21 +2635,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2634,31 +2661,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2667,14 +2694,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2717,14 +2744,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2733,14 +2760,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2750,14 +2777,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2766,7 +2793,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2779,15 +2806,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2806,7 +2833,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2816,14 +2843,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2832,31 +2859,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2865,14 +2892,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2882,11 +2909,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2898,31 +2925,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2931,14 +2958,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2948,11 +2975,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2964,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2981,14 +3008,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2997,28 +3024,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3070,7 +3097,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3080,14 +3107,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3096,28 +3123,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3129,20 +3156,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3169,21 +3196,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3195,14 +3222,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3212,11 +3239,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3228,14 +3255,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3245,14 +3272,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>189</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3261,14 +3288,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3278,14 +3305,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3301,7 +3328,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3334,7 +3361,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3344,14 +3371,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3367,7 +3394,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3377,14 +3404,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3393,14 +3420,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3410,11 +3437,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3426,14 +3453,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3443,11 +3470,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3459,14 +3486,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3476,11 +3503,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3492,14 +3519,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3509,11 +3536,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3525,14 +3552,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3542,11 +3569,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3558,14 +3585,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3575,49 +3602,148 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4324.5349999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>212</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>213</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>214</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>215</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>86</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>23</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>216</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>218</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>219</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>23</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>207</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>220</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>86</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>23</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>80</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4451.2550000000001</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>221</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>222</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>223</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3976,10 +4102,25 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -674,7 +674,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 7:39 PM</t>
+    <t>Tuesday, 23 September, 2025 7:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -416,6 +416,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -578,6 +587,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>بودره اطفال نونو 100ملل</t>
   </si>
   <si>
@@ -632,9 +653,6 @@
     <t>8:4</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -668,13 +686,13 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 7:41 PM</t>
+    <t>Tuesday, 23 September, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2602,13 +2620,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2635,13 +2653,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2668,13 +2686,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2701,7 +2719,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,11 +2729,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2727,20 +2745,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2751,7 +2769,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2767,13 +2785,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2784,7 +2802,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2800,24 +2818,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2826,28 +2844,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2866,13 +2884,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2883,7 +2901,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2899,13 +2917,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2916,7 +2934,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2932,7 +2950,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,14 +2960,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2958,14 +2976,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,14 +2993,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3008,11 +3026,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3024,28 +3042,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3057,28 +3075,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3090,14 +3108,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,14 +3125,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,14 +3158,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3156,14 +3174,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3173,11 +3191,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3189,14 +3207,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3206,11 +3224,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3222,28 +3240,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3255,14 +3273,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3295,7 +3313,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,14 +3323,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,14 +3339,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3338,11 +3356,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3354,14 +3372,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3371,14 +3389,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>198</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,7 +3405,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3404,14 +3422,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,14 +3438,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3437,14 +3455,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,14 +3471,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3474,10 +3492,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3486,14 +3504,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3503,11 +3521,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3519,14 +3537,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3536,11 +3554,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3552,14 +3570,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3569,11 +3587,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3585,14 +3603,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3602,11 +3620,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3618,14 +3636,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3635,11 +3653,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3651,14 +3669,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3668,11 +3686,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3684,7 +3702,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3701,49 +3719,115 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>224</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>225</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>23</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>194</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>226</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>86</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>23</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>80</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>81</v>
       </c>
-      <c t="s" r="Q79" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4451.2550000000001</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>221</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
-        <v>222</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
-        <v>223</v>
-      </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4598.2550000000001</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>227</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>228</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>229</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4117,10 +4201,20 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>148.0000</t>
   </si>
   <si>
+    <t>CHOLEROSE 20MG 21 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -266,6 +275,18 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -281,9 +302,6 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -329,6 +347,9 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LADAME  VAG.DOUSH</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -452,6 +473,15 @@
     <t>155.5000</t>
   </si>
   <si>
+    <t>PONOFORTE 500MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -530,6 +560,15 @@
     <t>TRUZYM TAB</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -557,6 +596,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -593,9 +641,6 @@
     <t>28:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -623,36 +668,39 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شامبو نونو 200ملل </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات كوين حريمي </t>
+  </si>
+  <si>
+    <t>8:4</t>
+  </si>
+  <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شامبو نونو 200ملل </t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات كوين حريمي </t>
-  </si>
-  <si>
-    <t>8:4</t>
-  </si>
-  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -680,9 +728,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
@@ -692,7 +737,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 7:42 PM</t>
+    <t>Tuesday, 23 September, 2025 7:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1531,7 +1576,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1541,14 +1586,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1557,14 +1602,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1581,7 +1626,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1597,7 +1642,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1607,14 +1652,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1623,14 +1668,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1640,11 +1685,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1656,14 +1701,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1673,14 +1718,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1689,14 +1734,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1713,7 +1758,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1729,7 +1774,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1739,11 +1784,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1755,14 +1800,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1779,7 +1824,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1795,7 +1840,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1812,7 +1857,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1828,7 +1873,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1845,7 +1890,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1861,7 +1906,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1878,7 +1923,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1894,7 +1939,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1911,7 +1956,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1927,7 +1972,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1937,11 +1982,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1953,14 +1998,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1970,14 +2015,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2026,7 +2071,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2036,11 +2081,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2052,14 +2097,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2069,14 +2114,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2085,20 +2130,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2125,7 +2170,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2135,14 +2180,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2151,7 +2196,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2168,11 +2213,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2184,7 +2229,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2201,11 +2246,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2224,7 +2269,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2241,7 +2286,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2257,7 +2302,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2290,13 +2335,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2307,7 +2352,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2333,11 +2378,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2349,14 +2394,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2366,11 +2411,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2389,7 +2434,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2399,14 +2444,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2415,28 +2460,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2448,14 +2493,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2465,14 +2510,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2488,7 +2533,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2498,14 +2543,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2514,14 +2559,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2531,14 +2576,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2547,14 +2592,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2564,14 +2609,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2580,14 +2625,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2597,14 +2642,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2613,31 +2658,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2646,14 +2691,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2663,14 +2708,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2679,28 +2724,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2712,28 +2757,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2745,14 +2790,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2762,11 +2807,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2778,14 +2823,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2795,14 +2840,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2811,14 +2856,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2828,11 +2873,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2844,7 +2889,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2857,18 +2902,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2877,14 +2922,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2901,7 +2946,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2917,7 +2962,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2934,7 +2979,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2950,7 +2995,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2967,7 +3012,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2983,24 +3028,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3016,7 +3061,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3030,7 +3075,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3042,31 +3087,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3075,7 +3120,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3088,15 +3133,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3108,14 +3153,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3125,14 +3170,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3141,14 +3186,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3158,14 +3203,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3174,14 +3219,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3191,7 +3236,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3214,21 +3259,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3240,14 +3285,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3257,14 +3302,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3273,28 +3318,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3306,31 +3351,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3339,28 +3384,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3372,31 +3417,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3405,28 +3450,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3438,7 +3483,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3451,18 +3496,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3471,14 +3516,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3488,14 +3533,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3504,14 +3549,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3521,14 +3566,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3537,14 +3582,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3554,11 +3599,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3577,7 +3622,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3587,11 +3632,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3610,7 +3655,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3620,11 +3665,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3636,7 +3681,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3653,14 +3698,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3669,7 +3714,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3686,14 +3731,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3702,14 +3747,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3719,11 +3764,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3735,14 +3780,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3752,14 +3797,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3768,14 +3813,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3785,49 +3830,247 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>231</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>232</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>23</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>233</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>235</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>12</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>23</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>63</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>236</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>12</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>23</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>233</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>237</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>93</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>23</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>238</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>239</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>240</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>23</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>155</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
         <v>81</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4598.2550000000001</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>227</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>228</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>229</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>241</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>93</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>23</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>83</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4826.2150000000001</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>242</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>243</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>244</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4211,10 +4454,40 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -119,13 +119,13 @@
     <t>148.0000</t>
   </si>
   <si>
-    <t>CHOLEROSE 20MG 21 F.C. TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
   </si>
   <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
@@ -548,9 +548,6 @@
     <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
   </si>
   <si>
-    <t>148.00</t>
-  </si>
-  <si>
     <t>TREFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
@@ -737,7 +734,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 7:54 PM</t>
+    <t>Tuesday, 23 September, 2025 7:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1576,7 +1573,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -3203,7 +3200,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3219,7 +3216,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3240,7 +3237,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3252,7 +3249,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3285,7 +3282,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3302,11 +3299,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3318,14 +3315,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3335,11 +3332,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3351,7 +3348,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3384,14 +3381,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3401,11 +3398,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3417,14 +3414,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3438,7 +3435,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3450,14 +3447,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3467,11 +3464,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3483,7 +3480,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3504,7 +3501,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3516,14 +3513,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3533,11 +3530,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3549,14 +3546,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3570,7 +3567,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -3582,7 +3579,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3599,11 +3596,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3615,7 +3612,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3632,11 +3629,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3648,7 +3645,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3665,11 +3662,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3681,7 +3678,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3698,14 +3695,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>219</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>220</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3714,7 +3711,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3731,11 +3728,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>47</v>
@@ -3747,7 +3744,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3764,11 +3761,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3780,14 +3777,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3801,7 +3798,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3813,7 +3810,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3830,11 +3827,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3846,14 +3843,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3863,11 +3860,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3879,7 +3876,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3912,7 +3909,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3929,11 +3926,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3945,7 +3942,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3962,7 +3959,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -3978,14 +3975,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4011,7 +4008,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4040,13 +4037,13 @@
     </row>
     <row r="88" ht="24.75" customHeight="1">
       <c r="P88" s="13">
-        <v>4826.2150000000001</v>
+        <v>4856.6549999999997</v>
       </c>
       <c r="Q88" s="13"/>
     </row>
     <row r="89" ht="16.5" customHeight="1">
       <c t="s" r="A89" s="14">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -4054,13 +4051,13 @@
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
       <c t="s" r="G89" s="15">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
       <c r="J89" s="16"/>
       <c t="s" r="K89" s="17">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -734,7 +734,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 7:55 PM</t>
+    <t>Tuesday, 23 September, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>DIMICAP FACIAL WASH 250 ML</t>
   </si>
   <si>
@@ -377,6 +386,15 @@
     <t>299.0000</t>
   </si>
   <si>
+    <t>LINEX CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -557,6 +575,15 @@
     <t>TRUZYM TAB</t>
   </si>
   <si>
+    <t>UNITRIN 25MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -614,6 +641,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -734,7 +770,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 7:59 PM</t>
+    <t>Tuesday, 23 September, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1870,7 +1906,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1903,7 +1939,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1920,7 +1956,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1936,7 +1972,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1953,7 +1989,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1969,7 +2005,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1986,7 +2022,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2002,7 +2038,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2012,11 +2048,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2028,14 +2064,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2045,14 +2081,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2101,7 +2137,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2111,11 +2147,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2127,14 +2163,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2144,11 +2180,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2160,14 +2196,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2184,7 +2220,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2200,13 +2236,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2217,7 +2253,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2239,15 +2275,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2259,7 +2295,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2272,15 +2308,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2305,7 +2341,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2332,13 +2368,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2349,7 +2385,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2365,7 +2401,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2375,14 +2411,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2391,28 +2427,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2431,7 +2467,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2448,7 +2484,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2464,13 +2500,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2481,7 +2517,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2497,21 +2533,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2523,14 +2559,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2540,14 +2576,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2556,14 +2592,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2573,11 +2609,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2589,14 +2625,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2606,14 +2642,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2622,14 +2658,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2639,11 +2675,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2662,7 +2698,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2679,7 +2715,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2695,7 +2731,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2705,11 +2741,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2721,14 +2757,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2745,7 +2781,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2761,24 +2797,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2787,14 +2823,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2827,7 +2863,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2860,7 +2896,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2893,13 +2929,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2926,7 +2962,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2936,11 +2972,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2952,7 +2988,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2965,18 +3001,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2985,14 +3021,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3035,14 +3071,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3051,14 +3087,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3068,14 +3104,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3084,14 +3120,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3101,14 +3137,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3124,7 +3160,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3157,21 +3193,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3183,7 +3219,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3200,11 +3236,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3216,14 +3252,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3233,14 +3269,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3249,7 +3285,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3262,15 +3298,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3282,14 +3318,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3299,14 +3335,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3315,28 +3351,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3348,14 +3384,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3365,11 +3401,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3381,14 +3417,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3405,7 +3441,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3431,14 +3467,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3447,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3464,14 +3500,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3480,14 +3516,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3497,7 +3533,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3526,18 +3562,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3546,31 +3582,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3586,13 +3622,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3619,21 +3655,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3645,14 +3681,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3662,11 +3698,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3678,14 +3714,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3695,14 +3731,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>219</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3711,14 +3747,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3728,14 +3764,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3744,14 +3780,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3761,11 +3797,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3784,7 +3820,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3794,7 +3830,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3817,7 +3853,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3827,14 +3863,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3843,14 +3879,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3860,14 +3896,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3876,14 +3912,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3893,11 +3929,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>64</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3909,14 +3945,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3926,11 +3962,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3942,14 +3978,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3959,11 +3995,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3975,14 +4011,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3992,14 +4028,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>108</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4008,14 +4044,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4025,49 +4061,181 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>247</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>12</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>23</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>244</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>248</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>96</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>23</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>249</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
         <v>84</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4856.6549999999997</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>241</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>242</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>243</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>250</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>251</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>23</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>161</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>252</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>96</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>23</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>86</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>5206.7849999999999</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>253</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>254</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>255</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4481,10 +4649,30 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AUGRAM 228.5MG/5ML PD. FOR ORAL SUSPENSION 60 ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
     <t>56.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AVEROTHIAZIDE 5/20/12.5MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -101,13 +113,13 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
-    <t>2:0</t>
+    <t>1:2</t>
   </si>
   <si>
     <t>99.00</t>
   </si>
   <si>
-    <t>32.6700</t>
+    <t>65.3400</t>
   </si>
   <si>
     <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
@@ -263,7 +275,7 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>1:2</t>
+    <t>103.7400</t>
   </si>
   <si>
     <t>EUTHYROX 100MCG 50 TAB.</t>
@@ -317,6 +329,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
@@ -398,6 +419,15 @@
     <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
   </si>
   <si>
+    <t>MELATEX LIGHTENING INTIMATE CLEANSER</t>
+  </si>
+  <si>
+    <t>279.00</t>
+  </si>
+  <si>
+    <t>279.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG 10 TAB.</t>
   </si>
   <si>
@@ -539,9 +569,6 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>SORAL 30 MG 30CAPS</t>
   </si>
   <si>
@@ -701,10 +728,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -770,7 +794,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 8:18 PM</t>
+    <t>Tuesday, 23 September, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1461,7 +1485,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1470,31 +1494,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1516,18 +1540,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1536,14 +1560,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1560,7 +1584,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1576,7 +1600,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1586,14 +1610,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1602,7 +1626,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1619,14 +1643,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1635,14 +1659,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1659,7 +1683,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1675,7 +1699,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1685,14 +1709,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1701,14 +1725,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1725,7 +1749,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1791,7 +1815,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1807,7 +1831,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1817,14 +1841,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1833,14 +1857,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1873,7 +1897,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1883,14 +1907,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1899,14 +1923,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1916,14 +1940,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1932,14 +1956,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1949,11 +1973,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1965,7 +1989,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1982,14 +2006,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1998,14 +2022,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2015,14 +2039,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2031,14 +2055,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2048,14 +2072,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2064,14 +2088,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2081,14 +2105,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2097,14 +2121,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2114,14 +2138,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2130,14 +2154,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2147,11 +2171,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2163,14 +2187,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2236,7 +2260,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2246,14 +2270,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2262,31 +2286,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2295,14 +2319,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2312,11 +2336,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2328,28 +2352,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2361,14 +2385,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2378,11 +2402,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2394,31 +2418,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2427,28 +2451,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2460,31 +2484,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2493,31 +2517,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2526,28 +2550,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2559,14 +2583,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2576,14 +2600,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2592,28 +2616,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2625,7 +2649,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2642,14 +2666,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2658,14 +2682,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2675,11 +2699,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2691,31 +2715,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2724,7 +2748,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2741,14 +2765,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2757,14 +2781,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2774,14 +2798,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2790,7 +2814,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2807,14 +2831,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2823,14 +2847,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2840,14 +2864,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2856,31 +2880,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2889,14 +2913,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2906,14 +2930,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2929,24 +2953,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2955,31 +2979,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2988,14 +3012,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3005,14 +3029,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3021,20 +3045,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3045,7 +3069,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3061,13 +3085,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3078,7 +3102,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3094,7 +3118,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3111,7 +3135,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3127,24 +3151,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3153,31 +3177,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3186,31 +3210,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3219,28 +3243,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3252,14 +3276,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3269,14 +3293,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3285,31 +3309,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3318,14 +3342,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3335,11 +3359,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3351,31 +3375,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3384,14 +3408,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3401,14 +3425,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3417,14 +3441,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3434,14 +3458,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3450,28 +3474,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3483,14 +3507,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,14 +3524,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3516,14 +3540,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3540,7 +3564,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3566,14 +3590,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3582,14 +3606,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>51</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,14 +3623,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3615,14 +3639,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3632,11 +3656,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3648,14 +3672,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3665,14 +3689,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3694,7 +3718,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3721,24 +3745,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3754,21 +3778,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3780,28 +3804,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3813,31 +3837,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3846,31 +3870,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3879,7 +3903,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3892,18 +3916,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3919,13 +3943,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3952,24 +3976,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3978,31 +4002,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4011,20 +4035,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4051,21 +4075,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4077,28 +4101,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4110,28 +4134,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4143,31 +4167,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4176,66 +4200,165 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>86</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>256</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>100</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>27</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>257</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
         <v>87</v>
       </c>
-      <c t="s" r="Q91" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>5206.7849999999999</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>253</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>254</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>255</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>258</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>259</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>27</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>171</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>260</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>100</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>27</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>90</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5724.4549999999999</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>261</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>262</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>263</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4669,10 +4792,25 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>65.3400</t>
   </si>
   <si>
+    <t>CARVID 25MG 30TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
   </si>
   <si>
@@ -458,6 +470,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -491,9 +512,6 @@
     <t>108.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -656,6 +674,9 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -728,7 +749,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -794,7 +818,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 8:42 PM</t>
+    <t>Tuesday, 23 September, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1633,7 +1657,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1643,11 +1667,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>25</v>
@@ -1659,7 +1683,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1676,11 +1700,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1692,14 +1716,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1716,7 +1740,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1732,7 +1756,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1742,14 +1766,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1758,14 +1782,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1782,7 +1806,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1848,7 +1872,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1864,7 +1888,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1874,14 +1898,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1890,14 +1914,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1930,7 +1954,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1940,14 +1964,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1956,14 +1980,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1973,14 +1997,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1989,14 +2013,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2006,11 +2030,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2022,14 +2046,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2039,14 +2063,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2055,14 +2079,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2072,14 +2096,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2088,14 +2112,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2105,14 +2129,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2121,14 +2145,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2138,14 +2162,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2154,14 +2178,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2171,14 +2195,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2187,7 +2211,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2204,11 +2228,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2220,14 +2244,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2293,7 +2317,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2303,14 +2327,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2319,14 +2343,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2336,14 +2360,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2352,28 +2376,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2385,7 +2409,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2398,15 +2422,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2418,7 +2442,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2431,15 +2455,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2451,7 +2475,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2464,15 +2488,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2484,31 +2508,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2517,14 +2541,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2534,14 +2558,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2550,28 +2574,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2583,14 +2607,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2600,14 +2624,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2616,31 +2640,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2649,28 +2673,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2682,14 +2706,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2699,11 +2723,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2715,28 +2739,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2748,7 +2772,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2761,18 +2785,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2781,14 +2805,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2798,14 +2822,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2814,14 +2838,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2831,14 +2855,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2847,14 +2871,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2864,14 +2888,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2880,14 +2904,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2897,14 +2921,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2913,14 +2937,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2930,14 +2954,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2946,14 +2970,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2963,14 +2987,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2979,31 +3003,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3019,7 +3043,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3029,11 +3053,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3045,14 +3069,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3062,14 +3086,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3085,7 +3109,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3118,13 +3142,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3151,7 +3175,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3161,11 +3185,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3177,7 +3201,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3190,18 +3214,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3210,14 +3234,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3260,14 +3284,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3276,14 +3300,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3293,14 +3317,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3309,14 +3333,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3326,14 +3350,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3342,14 +3366,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3359,14 +3383,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3382,21 +3406,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3408,7 +3432,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3425,11 +3449,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3441,14 +3465,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3458,14 +3482,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3474,7 +3498,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3487,15 +3511,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3507,14 +3531,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3524,14 +3548,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3540,31 +3564,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3580,7 +3604,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3590,14 +3614,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3606,14 +3630,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3623,11 +3647,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3639,14 +3663,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3656,11 +3680,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3672,14 +3696,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3689,11 +3713,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3705,14 +3729,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3722,11 +3746,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3738,14 +3762,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3755,14 +3779,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3771,14 +3795,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3788,14 +3812,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3804,28 +3828,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3837,31 +3861,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3870,28 +3894,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3903,14 +3927,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3920,11 +3944,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3943,7 +3967,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3953,14 +3977,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3976,7 +4000,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3986,14 +4010,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4002,14 +4026,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4019,14 +4043,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4035,14 +4059,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4052,11 +4076,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4068,14 +4092,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4085,14 +4109,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4101,14 +4125,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4118,14 +4142,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4134,14 +4158,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4174,7 +4198,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4184,11 +4208,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4200,14 +4224,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4217,11 +4241,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4233,14 +4257,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4250,11 +4274,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4266,14 +4290,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4283,14 +4307,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4299,14 +4323,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4316,49 +4340,148 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>264</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>104</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>27</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>265</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>266</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>267</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>27</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>177</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
         <v>91</v>
       </c>
-      <c t="s" r="Q94" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5724.4549999999999</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>261</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>262</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>263</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>268</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>104</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>27</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>94</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5819.0150000000003</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>269</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>270</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>271</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4807,10 +4930,25 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -818,7 +818,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 8:45 PM</t>
+    <t>Tuesday, 23 September, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -371,6 +371,15 @@
     <t>240.0000</t>
   </si>
   <si>
+    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>ISOMOISTY NASAL SPRAY 30 ML</t>
   </si>
   <si>
@@ -689,6 +698,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -818,7 +836,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 8:52 PM</t>
+    <t>Tuesday, 23 September, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2515,7 +2533,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2532,7 +2550,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2548,13 +2566,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2565,7 +2583,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2581,7 +2599,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2591,14 +2609,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2607,28 +2625,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2647,7 +2665,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2664,7 +2682,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2680,13 +2698,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2697,7 +2715,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2713,13 +2731,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2746,7 +2764,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2756,11 +2774,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2772,28 +2790,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2818,18 +2836,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2838,14 +2856,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2855,14 +2873,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2871,14 +2889,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2888,14 +2906,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2911,7 +2929,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2928,7 +2946,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2944,7 +2962,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2961,7 +2979,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2977,7 +2995,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2994,7 +3012,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3010,7 +3028,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3020,14 +3038,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3036,14 +3054,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3053,14 +3071,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3069,20 +3087,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3090,10 +3108,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3102,31 +3120,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3142,13 +3160,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3175,13 +3193,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3208,7 +3226,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3241,7 +3259,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3251,11 +3269,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3267,20 +3285,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3291,7 +3309,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3307,13 +3325,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3324,7 +3342,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3340,24 +3358,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3366,31 +3384,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3399,31 +3417,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3439,13 +3457,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3456,7 +3474,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3472,7 +3490,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3482,14 +3500,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3498,14 +3516,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3515,14 +3533,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3531,14 +3549,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3548,11 +3566,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3564,28 +3582,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3597,7 +3615,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3610,18 +3628,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3637,7 +3655,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3670,7 +3688,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3680,14 +3698,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3696,14 +3714,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3713,14 +3731,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3729,14 +3747,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>55</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3746,14 +3764,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3762,14 +3780,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3779,14 +3797,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3802,7 +3820,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3812,11 +3830,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3828,14 +3846,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>223</v>
+        <v>70</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3845,14 +3863,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3861,14 +3879,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3901,7 +3919,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3911,11 +3929,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3927,20 +3945,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3967,24 +3985,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3993,14 +4011,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4033,7 +4051,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4043,14 +4061,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4059,14 +4077,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4076,11 +4094,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4092,14 +4110,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4109,14 +4127,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4149,7 +4167,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4165,7 +4183,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4175,14 +4193,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q89" s="12">
         <v>253</v>
-      </c>
-      <c t="s" r="Q89" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4198,7 +4216,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4208,14 +4226,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4231,7 +4249,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4241,11 +4259,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4257,14 +4275,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4274,11 +4292,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4290,14 +4308,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4307,11 +4325,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4323,14 +4341,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4340,11 +4358,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4356,14 +4374,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4373,11 +4391,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4389,14 +4407,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4406,14 +4424,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4422,7 +4440,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4439,49 +4457,115 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>94</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>272</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>273</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>27</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>180</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>274</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>104</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>27</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>94</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>95</v>
       </c>
-      <c t="s" r="Q97" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5819.0150000000003</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>269</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>270</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>271</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5943.625</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>275</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>276</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>277</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4945,10 +5029,20 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -218,6 +218,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -398,6 +410,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>KEINAN CREAM</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LADAME  VAG.DOUSH</t>
   </si>
   <si>
@@ -767,10 +788,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>20:0</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -836,7 +857,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 8:55 PM</t>
+    <t>Tuesday, 23 September, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1989,7 +2010,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2005,7 +2026,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2015,14 +2036,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2031,14 +2052,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2048,14 +2069,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2064,14 +2085,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2081,11 +2102,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2097,14 +2118,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2114,14 +2135,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2130,14 +2151,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2147,14 +2168,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2163,14 +2184,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2180,14 +2201,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2196,14 +2217,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2213,14 +2234,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2229,14 +2250,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2246,14 +2267,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2262,7 +2283,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2279,11 +2300,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2295,14 +2316,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2368,7 +2389,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2378,14 +2399,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2394,14 +2415,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2411,14 +2432,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2427,28 +2448,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2460,7 +2481,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2473,15 +2494,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2493,7 +2514,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2506,15 +2527,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2526,31 +2547,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2576,14 +2597,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2592,31 +2613,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2625,14 +2646,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2642,14 +2663,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2658,28 +2679,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2691,31 +2712,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2724,28 +2745,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2757,14 +2778,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2774,14 +2795,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2790,28 +2811,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2823,28 +2844,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2856,14 +2877,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2873,14 +2894,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2889,28 +2910,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2922,14 +2943,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2939,14 +2960,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2955,14 +2976,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2972,11 +2993,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2988,14 +3009,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3005,11 +3026,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3021,14 +3042,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3038,14 +3059,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3054,14 +3075,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3071,14 +3092,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3087,14 +3108,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3104,14 +3125,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3120,31 +3141,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3153,14 +3174,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3170,11 +3191,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3186,14 +3207,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3203,14 +3224,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3219,14 +3240,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3236,11 +3257,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3252,28 +3273,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3285,14 +3306,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3331,7 +3352,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3342,7 +3363,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3358,7 +3379,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3368,11 +3389,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3384,7 +3405,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3401,14 +3422,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3417,14 +3438,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3434,14 +3455,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3450,14 +3471,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3467,14 +3488,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3483,14 +3504,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3500,14 +3521,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3516,28 +3537,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3549,7 +3570,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3566,11 +3587,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3582,14 +3603,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3599,14 +3620,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3615,7 +3636,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3628,15 +3649,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3648,14 +3669,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3665,14 +3686,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3681,31 +3702,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3714,14 +3735,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3738,7 +3759,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3754,7 +3775,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3764,11 +3785,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3780,14 +3801,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3797,11 +3818,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3813,14 +3834,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3830,11 +3851,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3853,7 +3874,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3863,14 +3884,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3879,14 +3900,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3896,14 +3917,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3912,14 +3933,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3929,14 +3950,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3952,7 +3973,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3962,11 +3983,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3978,14 +3999,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3995,11 +4016,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4011,28 +4032,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4044,31 +4065,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4084,7 +4105,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4094,11 +4115,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4110,14 +4131,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4127,14 +4148,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4143,14 +4164,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4160,11 +4181,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4176,14 +4197,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4193,14 +4214,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4209,7 +4230,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4226,14 +4247,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4242,14 +4263,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4259,14 +4280,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4275,14 +4296,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4292,14 +4313,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4308,14 +4329,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4325,11 +4346,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4341,14 +4362,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4358,11 +4379,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4374,14 +4395,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4391,11 +4412,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4407,14 +4428,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4424,11 +4445,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4440,14 +4461,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4457,11 +4478,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4473,14 +4494,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4490,14 +4511,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>180</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4506,14 +4527,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4523,49 +4544,115 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>279</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>280</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>27</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>187</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
         <v>95</v>
       </c>
-      <c t="s" r="Q99" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5943.625</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>275</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>276</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>277</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>281</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>108</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>27</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>98</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>6056.625</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>282</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>283</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>284</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5039,10 +5126,20 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
   </si>
   <si>
@@ -200,9 +212,6 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -485,9 +494,6 @@
     <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -611,12 +617,18 @@
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
+    <t>SALBOVENT 2MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>SORAL 30 MG 30CAPS</t>
   </si>
   <si>
@@ -857,7 +869,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 8:58 PM</t>
+    <t>Tuesday, 23 September, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1729,7 +1741,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1739,11 +1751,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1755,7 +1767,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1772,11 +1784,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1788,14 +1800,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1812,7 +1824,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1828,7 +1840,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1838,14 +1850,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1854,14 +1866,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1878,7 +1890,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1944,7 +1956,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1960,7 +1972,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1977,7 +1989,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1993,7 +2005,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2003,14 +2015,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2019,14 +2031,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2036,14 +2048,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2052,14 +2064,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2076,7 +2088,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2092,7 +2104,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2109,7 +2121,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2125,7 +2137,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2158,7 +2170,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2175,7 +2187,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2191,7 +2203,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2208,7 +2220,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2224,7 +2236,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2241,7 +2253,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2257,7 +2269,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2267,14 +2279,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2283,14 +2295,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2300,14 +2312,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2356,7 +2368,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2366,11 +2378,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2382,14 +2394,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2399,11 +2411,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2439,7 +2451,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2455,7 +2467,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2472,7 +2484,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2488,13 +2500,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2527,15 +2539,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2547,7 +2559,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2560,15 +2572,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2587,13 +2599,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2604,7 +2616,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2620,7 +2632,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2637,7 +2649,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2653,13 +2665,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2670,7 +2682,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2686,7 +2698,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2703,7 +2715,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2729,11 +2741,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2745,28 +2757,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2785,7 +2797,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2802,7 +2814,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2818,13 +2830,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2835,7 +2847,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2851,13 +2863,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2884,7 +2896,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2894,11 +2906,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2910,28 +2922,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2956,18 +2968,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2976,14 +2988,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2993,14 +3005,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3009,14 +3021,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3026,14 +3038,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3049,7 +3061,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3059,14 +3071,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3075,14 +3087,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3092,14 +3104,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3108,14 +3120,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3125,14 +3137,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3141,14 +3153,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3158,14 +3170,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3181,7 +3193,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3191,14 +3203,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3207,31 +3219,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3247,13 +3259,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3261,10 +3273,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3273,28 +3285,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3306,28 +3318,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3339,14 +3351,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3356,11 +3368,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3372,14 +3384,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3389,11 +3401,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3405,31 +3417,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3438,31 +3450,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3471,31 +3483,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3504,31 +3516,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3544,13 +3556,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3561,7 +3573,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3577,7 +3589,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3587,14 +3599,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3603,28 +3615,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3653,11 +3665,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3669,14 +3681,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3686,14 +3698,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3702,7 +3714,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3715,15 +3727,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3735,14 +3747,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3752,14 +3764,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3775,24 +3787,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3801,14 +3813,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3818,14 +3830,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3834,14 +3846,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3851,11 +3863,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3867,14 +3879,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3884,11 +3896,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3900,14 +3912,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3917,11 +3929,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3933,14 +3945,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3950,14 +3962,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3983,14 +3995,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3999,14 +4011,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4016,14 +4028,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4032,14 +4044,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4049,11 +4061,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4065,14 +4077,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4082,11 +4094,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4098,28 +4110,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4131,31 +4143,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4164,14 +4176,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4181,11 +4193,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4197,14 +4209,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4214,14 +4226,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4237,7 +4249,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4270,7 +4282,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4280,14 +4292,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>260</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4296,7 +4308,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4313,14 +4325,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4329,14 +4341,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4346,14 +4358,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4362,14 +4374,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4379,14 +4391,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4395,14 +4407,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4412,11 +4424,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4445,11 +4457,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>189</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4461,14 +4473,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4478,11 +4490,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4494,14 +4506,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4511,11 +4523,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4527,14 +4539,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4544,11 +4556,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4560,14 +4572,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4577,14 +4589,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>129</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4600,7 +4612,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4610,49 +4622,115 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>6056.625</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>282</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>283</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
         <v>284</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>27</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>189</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>285</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>111</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>27</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>101</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>6088.5450000000001</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>286</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>287</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>288</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5136,10 +5214,20 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -305,6 +305,15 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>DUOEFFECTUM EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -524,6 +533,15 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>ORCHAZID 0.025% EYE DPS. 10 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>OST-MAP 60MG 20 CAPS.</t>
   </si>
   <si>
@@ -584,6 +602,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -674,24 +701,12 @@
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -785,6 +800,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t>رباط ضغط 10سم</t>
   </si>
   <si>
@@ -800,9 +827,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
     <t>21:0</t>
   </si>
   <si>
@@ -869,7 +893,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 9:04 PM</t>
+    <t>Tuesday, 23 September, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2302,7 +2326,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2312,14 +2336,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2328,14 +2352,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2345,14 +2369,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2401,7 +2425,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2411,11 +2435,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2427,14 +2451,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2444,11 +2468,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2460,14 +2484,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2484,7 +2508,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2500,7 +2524,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2517,7 +2541,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2533,13 +2557,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2572,15 +2596,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2592,7 +2616,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2605,15 +2629,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2632,13 +2656,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2649,7 +2673,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2665,7 +2689,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2682,7 +2706,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2698,13 +2722,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2715,7 +2739,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2731,7 +2755,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2748,7 +2772,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2774,11 +2798,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2790,28 +2814,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2830,7 +2854,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2847,7 +2871,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2863,13 +2887,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2880,7 +2904,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2896,13 +2920,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2929,7 +2953,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2939,11 +2963,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2955,28 +2979,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3001,18 +3025,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3021,14 +3045,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3038,14 +3062,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3054,14 +3078,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3071,14 +3095,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3087,14 +3111,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3104,14 +3128,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3127,7 +3151,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3144,7 +3168,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3160,7 +3184,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3177,7 +3201,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3193,7 +3217,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3203,14 +3227,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3219,14 +3243,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3243,7 +3267,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3259,24 +3283,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3292,7 +3316,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,11 +3326,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3318,14 +3342,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3335,14 +3359,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3358,7 +3382,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3391,13 +3415,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3424,7 +3448,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3434,11 +3458,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3450,7 +3474,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3463,18 +3487,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>107</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3483,14 +3507,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3500,14 +3524,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3516,31 +3540,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3549,31 +3573,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3582,14 +3606,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3599,14 +3623,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3615,14 +3639,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3632,14 +3656,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3648,14 +3672,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3665,11 +3689,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3681,14 +3705,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3698,14 +3722,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3714,31 +3738,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3747,14 +3771,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3764,11 +3788,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3780,31 +3804,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3813,7 +3837,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3830,14 +3854,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3846,14 +3870,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3863,14 +3887,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3879,28 +3903,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3912,14 +3936,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,11 +3953,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3945,14 +3969,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3962,14 +3986,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3978,14 +4002,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3995,14 +4019,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4011,14 +4035,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4028,11 +4052,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4044,14 +4068,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,11 +4085,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4077,14 +4101,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4094,14 +4118,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4110,14 +4134,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4127,14 +4151,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4143,14 +4167,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4160,11 +4184,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4176,28 +4200,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4209,31 +4233,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4242,28 +4266,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4275,14 +4299,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4292,11 +4316,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4308,14 +4332,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4325,14 +4349,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4341,14 +4365,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4358,14 +4382,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4374,14 +4398,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4391,14 +4415,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4407,14 +4431,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4424,11 +4448,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4440,14 +4464,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4457,11 +4481,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4473,14 +4497,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4490,14 +4514,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4506,14 +4530,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4523,14 +4547,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4539,14 +4563,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4556,11 +4580,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4572,14 +4596,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4589,11 +4613,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>195</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4605,14 +4629,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4622,11 +4646,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4655,14 +4679,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>189</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>132</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4671,14 +4695,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4688,49 +4712,181 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>6088.5450000000001</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>288</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>18</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>27</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>285</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
         <v>286</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>287</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>288</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>289</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>114</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>27</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>290</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>291</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>292</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>27</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>195</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>293</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>114</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>27</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>104</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>6187.5450000000001</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>294</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>295</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>296</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5224,10 +5380,30 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -314,6 +314,12 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>EPICOGEL SUSP. 180ML</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -761,9 +767,6 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
-  </si>
-  <si>
     <t>ZYRTEC 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -893,7 +896,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 9:06 PM</t>
+    <t>Tuesday, 23 September, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2359,7 +2362,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2369,14 +2372,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2392,7 +2395,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2402,14 +2405,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2418,7 +2421,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2435,11 +2438,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2451,14 +2454,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2468,11 +2471,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2484,14 +2487,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2501,11 +2504,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2517,14 +2520,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2534,14 +2537,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2550,14 +2553,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2567,14 +2570,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2583,28 +2586,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2616,7 +2619,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2629,15 +2632,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2649,7 +2652,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2662,15 +2665,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2682,31 +2685,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2715,14 +2718,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2732,14 +2735,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2748,31 +2751,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2781,14 +2784,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2798,14 +2801,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2814,7 +2817,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2831,11 +2834,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2847,28 +2850,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2880,14 +2883,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2897,14 +2900,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2913,31 +2916,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2946,28 +2949,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2979,14 +2982,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2996,11 +2999,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3012,28 +3015,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3045,7 +3048,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3058,18 +3061,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3085,7 +3088,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3095,14 +3098,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3118,7 +3121,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3128,14 +3131,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3151,7 +3154,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3161,14 +3164,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3177,14 +3180,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3194,14 +3197,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3210,14 +3213,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3227,14 +3230,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3243,14 +3246,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3260,14 +3263,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3276,7 +3279,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3293,7 +3296,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3316,7 +3319,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3326,14 +3329,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3342,31 +3345,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3382,13 +3385,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3396,10 +3399,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3408,28 +3411,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3441,28 +3444,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3474,14 +3477,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3491,11 +3494,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3507,7 +3510,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3524,14 +3527,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3540,14 +3543,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3557,14 +3560,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3573,31 +3576,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3606,31 +3609,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3639,31 +3642,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3672,28 +3675,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3705,14 +3708,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3722,14 +3725,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3738,31 +3741,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3771,31 +3774,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3804,14 +3807,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3821,14 +3824,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>60</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3837,14 +3840,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3854,14 +3857,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3870,14 +3873,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3887,11 +3890,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3910,21 +3913,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3936,7 +3939,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3949,18 +3952,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3969,14 +3972,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3986,11 +3989,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -4002,14 +4005,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4019,14 +4022,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4042,7 +4045,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4052,14 +4055,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4068,14 +4071,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>59</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4085,14 +4088,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4101,14 +4104,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4118,14 +4121,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4134,14 +4137,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4151,11 +4154,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4167,14 +4170,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4184,14 +4187,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4200,14 +4203,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4217,11 +4220,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4233,14 +4236,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4250,11 +4253,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4266,14 +4269,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4283,11 +4286,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>186</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4299,28 +4302,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4332,14 +4335,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4349,14 +4352,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4365,14 +4368,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4382,14 +4385,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4398,14 +4401,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4415,14 +4418,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4431,14 +4434,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4448,14 +4451,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4471,7 +4474,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4481,11 +4484,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4497,7 +4500,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4514,14 +4517,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4530,7 +4533,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4547,14 +4550,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>59</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4563,14 +4566,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4580,14 +4583,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4596,14 +4599,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4613,11 +4616,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4629,14 +4632,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>59</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4646,11 +4649,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4669,7 +4672,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>59</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4679,11 +4682,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4695,14 +4698,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4712,11 +4715,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4745,11 +4748,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4768,7 +4771,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4778,11 +4781,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>196</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4794,14 +4797,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>116</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4811,14 +4814,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4827,14 +4830,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>114</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4844,49 +4847,82 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>6187.5450000000001</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>294</v>
       </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>116</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>27</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>106</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6283.5450000000001</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
         <v>295</v>
       </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
         <v>296</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>297</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5400,10 +5436,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -813,6 +813,18 @@
   </si>
   <si>
     <t>5.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:12</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>11.5000</t>
   </si>
   <si>
     <t>رباط ضغط 10سم</t>
@@ -4474,7 +4486,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4484,14 +4496,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4500,14 +4512,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4517,11 +4529,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4533,7 +4545,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4550,14 +4562,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>273</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4566,7 +4578,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4583,14 +4595,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>59</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4599,14 +4611,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4616,14 +4628,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4632,14 +4644,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4649,11 +4661,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4665,14 +4677,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4682,11 +4694,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4698,14 +4710,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>59</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4715,11 +4727,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4738,7 +4750,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4748,11 +4760,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4764,7 +4776,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4781,11 +4793,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4797,14 +4809,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4814,11 +4826,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4830,14 +4842,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>116</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4847,14 +4859,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4863,14 +4875,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>116</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4880,49 +4892,82 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>298</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>116</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>27</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>106</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>107</v>
       </c>
-      <c t="s" r="Q108" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6283.5450000000001</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>295</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>296</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>297</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>6295.0450000000001</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>299</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>300</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>301</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5441,10 +5486,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -335,6 +335,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>FACE LOOK CLEANSER</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>FLAZACOR 6 MG 10 TABS.</t>
   </si>
   <si>
@@ -584,9 +593,6 @@
     <t xml:space="preserve">PEA  400 MGTAB</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
     <t>49.5000</t>
   </si>
   <si>
@@ -908,7 +914,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 9:08 PM</t>
+    <t>Tuesday, 23 September, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2473,13 +2479,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2506,7 +2512,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2516,11 +2522,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2532,14 +2538,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2549,11 +2555,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2565,14 +2571,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2589,7 +2595,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2605,7 +2611,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2622,7 +2628,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2638,13 +2644,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2677,15 +2683,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2697,7 +2703,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2710,15 +2716,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2737,13 +2743,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2754,7 +2760,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2770,7 +2776,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2787,7 +2793,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2803,13 +2809,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2820,7 +2826,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2836,7 +2842,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2853,7 +2859,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2879,11 +2885,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2895,28 +2901,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2935,7 +2941,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2952,7 +2958,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2968,13 +2974,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2985,7 +2991,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3001,13 +3007,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3034,7 +3040,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3044,11 +3050,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3060,28 +3066,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3106,18 +3112,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3126,14 +3132,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3143,14 +3149,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3159,14 +3165,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3176,14 +3182,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3192,14 +3198,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3209,14 +3215,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3232,7 +3238,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3249,7 +3255,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3265,7 +3271,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3282,7 +3288,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3298,7 +3304,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3315,7 +3321,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3341,11 +3347,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3357,14 +3363,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3374,14 +3380,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3390,20 +3396,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3411,10 +3417,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3423,31 +3429,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3463,13 +3469,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3496,21 +3502,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3522,14 +3528,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3539,11 +3545,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3555,7 +3561,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3572,14 +3578,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3588,14 +3594,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3605,14 +3611,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3621,31 +3627,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3654,31 +3660,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3687,31 +3693,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3720,28 +3726,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3753,14 +3759,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3770,14 +3776,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3786,31 +3792,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3819,31 +3825,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3852,14 +3858,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3869,14 +3875,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3885,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3902,14 +3908,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3918,14 +3924,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3935,11 +3941,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3958,21 +3964,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3984,7 +3990,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3997,18 +4003,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4017,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4034,11 +4040,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4050,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4067,14 +4073,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4090,7 +4096,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>59</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4100,14 +4106,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4116,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4133,14 +4139,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4149,14 +4155,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4166,14 +4172,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4182,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4199,11 +4205,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4215,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4232,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4248,14 +4254,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4265,11 +4271,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4281,14 +4287,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4298,11 +4304,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4321,7 +4327,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4331,11 +4337,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4354,21 +4360,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4380,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4397,14 +4403,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4413,14 +4419,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4430,14 +4436,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4446,14 +4452,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4463,14 +4469,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4479,14 +4485,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4496,14 +4502,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4512,14 +4518,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4529,14 +4535,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4545,14 +4551,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4562,11 +4568,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4578,7 +4584,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4595,14 +4601,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>277</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4628,14 +4634,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>59</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4644,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4661,14 +4667,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4677,14 +4683,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4694,11 +4700,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4710,14 +4716,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4727,11 +4733,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4743,14 +4749,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>59</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4760,11 +4766,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4776,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4793,11 +4799,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4809,7 +4815,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4826,11 +4832,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4842,14 +4848,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4859,11 +4865,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4882,7 +4888,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>119</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4892,14 +4898,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4915,7 +4921,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>116</v>
+        <v>299</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4925,49 +4931,82 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>300</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>119</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>27</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>106</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>107</v>
       </c>
-      <c t="s" r="Q109" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>6295.0450000000001</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>299</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>300</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>6445.0450000000001</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
         <v>301</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>302</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>303</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5491,10 +5530,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -365,6 +365,15 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -914,7 +923,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 9:30 PM</t>
+    <t>Tuesday, 23 September, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2578,7 +2587,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2588,11 +2597,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2604,14 +2613,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2628,7 +2637,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2644,7 +2653,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2661,7 +2670,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2677,13 +2686,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2716,15 +2725,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2736,7 +2745,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2749,15 +2758,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2776,13 +2785,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2793,7 +2802,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2809,7 +2818,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2826,7 +2835,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2842,13 +2851,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2859,7 +2868,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2875,7 +2884,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2892,7 +2901,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2918,11 +2927,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2934,28 +2943,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2974,7 +2983,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2991,7 +3000,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3007,13 +3016,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3024,7 +3033,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3040,13 +3049,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3073,7 +3082,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3083,11 +3092,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3099,28 +3108,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3145,18 +3154,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3198,14 +3207,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3215,14 +3224,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3231,14 +3240,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3271,7 +3280,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3288,7 +3297,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3304,7 +3313,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3321,7 +3330,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3337,7 +3346,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3354,7 +3363,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3380,11 +3389,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3396,14 +3405,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3413,14 +3422,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3429,20 +3438,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3450,10 +3459,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3462,31 +3471,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3502,21 +3511,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3528,24 +3537,24 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3568,7 +3577,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3618,7 +3627,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3634,7 +3643,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3660,20 +3669,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3684,7 +3693,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3700,13 +3709,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3717,7 +3726,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3733,24 +3742,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3759,28 +3768,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3799,7 +3808,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,14 +3818,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3825,31 +3834,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3865,13 +3874,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3882,7 +3891,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3898,7 +3907,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3924,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,14 +3950,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3957,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,11 +3983,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3990,28 +3999,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4023,7 +4032,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4036,18 +4045,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4063,7 +4072,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,11 +4082,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4089,14 +4098,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,14 +4115,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4155,14 +4164,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,14 +4181,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4188,14 +4197,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,14 +4214,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4228,7 +4237,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,11 +4247,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4254,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,14 +4280,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,14 +4296,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4327,7 +4336,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4341,7 +4350,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>102</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4353,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,11 +4379,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4386,28 +4395,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4419,14 +4428,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4436,14 +4445,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4459,7 +4468,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4469,14 +4478,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4492,7 +4501,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4502,14 +4511,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4518,14 +4527,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4535,14 +4544,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,14 +4560,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,14 +4593,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,11 +4610,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4634,14 +4643,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>279</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,7 +4659,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4667,14 +4676,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q101" s="12">
         <v>282</v>
-      </c>
-      <c t="s" r="Q101" s="12">
-        <v>59</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4690,7 +4699,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4707,7 +4716,7 @@
         <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4723,7 +4732,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4733,7 +4742,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>199</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4756,7 +4765,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>59</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,11 +4775,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4782,14 +4791,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>59</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,11 +4808,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4815,14 +4824,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,11 +4841,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4848,7 +4857,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4865,11 +4874,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4881,14 +4890,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4898,11 +4907,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4914,14 +4923,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>299</v>
+        <v>122</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4931,14 +4940,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>199</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4947,14 +4956,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>119</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4964,49 +4973,82 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>303</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>122</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>27</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>106</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>107</v>
       </c>
-      <c t="s" r="Q110" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>6445.0450000000001</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>301</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>302</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>303</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6489.0450000000001</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>304</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>305</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>306</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5535,10 +5577,15 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -365,423 +365,417 @@
     <t>47.0000</t>
   </si>
   <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
   </si>
   <si>
     <t>44.0000</t>
   </si>
   <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INIZIO RINNOVO HAIR  LOSS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>ISOMOISTY NASAL SPRAY 30 ML</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>KEINAN CREAM</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADAME  VAG.DOUSH</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>LEYLAC WHITENING EMULSION</t>
+  </si>
+  <si>
+    <t>299.00</t>
+  </si>
+  <si>
+    <t>299.0000</t>
+  </si>
+  <si>
+    <t>LINEX CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>MELATEX LIGHTENING INTIMATE CLEANSER</t>
+  </si>
+  <si>
+    <t>279.00</t>
+  </si>
+  <si>
+    <t>279.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>NEUROVIT 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>ORCHAZID 0.025% EYE DPS. 10 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OST-MAP 60MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEA  400 MGTAB</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>PLAVIX 75MG 28 FILM COATED TAB</t>
+  </si>
+  <si>
+    <t>311.00</t>
+  </si>
+  <si>
+    <t>155.5000</t>
+  </si>
+  <si>
+    <t>PONOFORTE 500MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>146.7900</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>SALBOVENT 2MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>SORAL 30 MG 30CAPS</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>42.5700</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>TRUZYM TAB</t>
+  </si>
+  <si>
+    <t>UNITRIN 25MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8220:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYPSUM  SYRUP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INIZIO RINNOVO HAIR  LOSS</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>ISOMOISTY NASAL SPRAY 30 ML</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>KEINAN CREAM</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADAME  VAG.DOUSH</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>LEYLAC WHITENING EMULSION</t>
-  </si>
-  <si>
-    <t>299.00</t>
-  </si>
-  <si>
-    <t>299.0000</t>
-  </si>
-  <si>
-    <t>LINEX CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>MELATEX LIGHTENING INTIMATE CLEANSER</t>
-  </si>
-  <si>
-    <t>279.00</t>
-  </si>
-  <si>
-    <t>279.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>NEUROVIT 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>265.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>ORCHAZID 0.025% EYE DPS. 10 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OST-MAP 60MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEA  400 MGTAB</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>PLAVIX 75MG 28 FILM COATED TAB</t>
-  </si>
-  <si>
-    <t>311.00</t>
-  </si>
-  <si>
-    <t>155.5000</t>
-  </si>
-  <si>
-    <t>PONOFORTE 500MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PRIVACOND EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAX  CAPS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>146.7900</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL ADVANCE GEL</t>
-  </si>
-  <si>
-    <t>SALBOVENT 2MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
-  </si>
-  <si>
-    <t>SORAL 30 MG 30CAPS</t>
-  </si>
-  <si>
-    <t>129.00</t>
-  </si>
-  <si>
-    <t>42.5700</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
-  </si>
-  <si>
-    <t>TREFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>TRUZYM TAB</t>
-  </si>
-  <si>
-    <t>UNITRIN 25MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>86.1300</t>
-  </si>
-  <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8220:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>XITHRONE 500MG 5 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>ZYRTEC 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -923,7 +917,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 9:33 PM</t>
+    <t>Tuesday, 23 September, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2587,7 +2581,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2604,7 +2598,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2620,7 +2614,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2630,14 +2624,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2646,14 +2640,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2663,14 +2657,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2679,28 +2673,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2712,7 +2706,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2725,15 +2719,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2745,7 +2739,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2758,15 +2752,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2778,31 +2772,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2811,14 +2805,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2828,14 +2822,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2844,31 +2838,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2877,14 +2871,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2894,14 +2888,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2910,7 +2904,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2927,11 +2921,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2943,28 +2937,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2976,14 +2970,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2993,14 +2987,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3009,31 +3003,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3042,28 +3036,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3075,14 +3069,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3092,11 +3086,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3108,7 +3102,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3141,7 +3135,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3158,11 +3152,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3174,7 +3168,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3195,7 +3189,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3207,7 +3201,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3224,11 +3218,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3240,7 +3234,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3261,7 +3255,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3273,7 +3267,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3290,11 +3284,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3306,7 +3300,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3323,11 +3317,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3339,7 +3333,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3356,11 +3350,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3372,7 +3366,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3389,11 +3383,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3405,7 +3399,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3422,11 +3416,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3438,14 +3432,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3455,11 +3449,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3471,7 +3465,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3488,11 +3482,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3504,7 +3498,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3521,11 +3515,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3537,7 +3531,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3558,7 +3552,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3570,7 +3564,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3587,11 +3581,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3603,7 +3597,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3620,11 +3614,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3636,7 +3630,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3653,11 +3647,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3669,14 +3663,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3686,11 +3680,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3702,7 +3696,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3719,11 +3713,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>115</v>
@@ -3735,7 +3729,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3752,11 +3746,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3768,7 +3762,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3801,7 +3795,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3818,11 +3812,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3834,7 +3828,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3851,7 +3845,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3867,7 +3861,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3884,11 +3878,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3900,7 +3894,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3917,11 +3911,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3933,7 +3927,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3954,7 +3948,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3966,7 +3960,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3999,7 +3993,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4020,7 +4014,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4032,7 +4026,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4049,11 +4043,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4065,7 +4059,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4082,11 +4076,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4098,7 +4092,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4115,7 +4109,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4131,14 +4125,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,11 +4142,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4164,7 +4158,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4185,7 +4179,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4197,14 +4191,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,11 +4208,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4230,14 +4224,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,11 +4241,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4263,7 +4257,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4280,11 +4274,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4296,14 +4290,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4313,11 +4307,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4329,7 +4323,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4346,11 +4340,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4362,14 +4356,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,7 +4373,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4395,7 +4389,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4412,11 +4406,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4428,14 +4422,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,11 +4439,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4461,14 +4455,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,11 +4472,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4494,7 +4488,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4511,11 +4505,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4527,14 +4521,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,11 +4538,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4560,14 +4554,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4577,11 +4571,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4593,7 +4587,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4610,11 +4604,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4626,7 +4620,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4643,11 +4637,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4659,7 +4653,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4676,14 +4670,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,7 +4686,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4709,11 +4703,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>59</v>
@@ -4725,7 +4719,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4742,11 +4736,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4758,14 +4752,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4775,11 +4769,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4791,7 +4785,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4808,11 +4802,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4824,14 +4818,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4841,11 +4835,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4857,7 +4851,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4890,7 +4884,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4907,11 +4901,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4923,14 +4917,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4940,11 +4934,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4956,14 +4950,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4973,11 +4967,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>59</v>
@@ -4989,14 +4983,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5018,13 +5012,13 @@
     </row>
     <row r="112" ht="25.5" customHeight="1">
       <c r="P112" s="13">
-        <v>6489.0450000000001</v>
+        <v>6563.0450000000001</v>
       </c>
       <c r="Q112" s="13"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
       <c t="s" r="A113" s="14">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -5032,13 +5026,13 @@
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
       <c t="s" r="G113" s="15">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
       <c r="J113" s="16"/>
       <c t="s" r="K113" s="17">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -917,7 +917,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 9:42 PM</t>
+    <t>Tuesday, 23 September, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -629,13 +629,19 @@
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>0:10</t>
+    <t>0:11</t>
   </si>
   <si>
     <t>752.00</t>
   </si>
   <si>
-    <t>37.6000</t>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>6.7200</t>
   </si>
   <si>
     <t xml:space="preserve">RELAX  CAPS</t>
@@ -692,9 +698,30 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
   </si>
   <si>
+    <t>TEMPORAL 250MG/5ML SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>TREFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
@@ -722,6 +749,9 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -731,12 +761,6 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -746,6 +770,12 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>162.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -836,6 +866,18 @@
     <t>11.5000</t>
   </si>
   <si>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>رباط ضغط 10سم</t>
   </si>
   <si>
@@ -890,12 +932,6 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>لزق بثور</t>
   </si>
   <si>
@@ -911,13 +947,10 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 9:44 PM</t>
+    <t>Tuesday, 23 September, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3684,10 +3717,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3696,31 +3729,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3729,31 +3762,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3762,31 +3795,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3795,28 +3828,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3828,14 +3861,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3845,14 +3878,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3861,31 +3894,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3894,31 +3927,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3927,14 +3960,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,14 +3977,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3960,14 +3993,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,14 +4010,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3993,14 +4026,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4010,11 +4043,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4026,7 +4059,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4039,15 +4072,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4059,14 +4092,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4076,14 +4109,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4092,14 +4125,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4109,14 +4142,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4125,28 +4158,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4158,14 +4191,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,11 +4208,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4191,14 +4224,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4208,14 +4241,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4224,14 +4257,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4241,14 +4274,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4257,14 +4290,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4274,11 +4307,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4290,14 +4323,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4307,14 +4340,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4323,14 +4356,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4340,11 +4373,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4356,14 +4389,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4373,14 +4406,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4389,14 +4422,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4406,14 +4439,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4422,31 +4455,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4455,31 +4488,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4488,28 +4521,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4521,31 +4554,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4554,31 +4587,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4587,14 +4620,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4604,11 +4637,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4620,14 +4653,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4637,14 +4670,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4653,14 +4686,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4670,14 +4703,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>280</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,14 +4719,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4703,14 +4736,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4719,14 +4752,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4736,14 +4769,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4752,14 +4785,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4769,11 +4802,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4785,14 +4818,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4802,11 +4835,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4818,14 +4851,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4835,11 +4868,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4851,7 +4884,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4868,14 +4901,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4884,7 +4917,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4901,14 +4934,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4917,14 +4950,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4934,11 +4967,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4950,14 +4983,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4971,10 +5004,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>139</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4983,14 +5016,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5000,49 +5033,247 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>305</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>306</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>27</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>235</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
         <v>107</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>6563.0450000000001</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>302</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>303</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>304</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>307</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>18</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>27</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>78</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>308</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>18</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>27</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>235</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>309</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>264</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>27</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>310</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>311</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>230</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>27</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>200</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>312</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>264</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>27</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>106</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>6777.165</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>313</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>314</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>315</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5576,10 +5807,40 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -950,7 +950,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 10:20 PM</t>
+    <t>Tuesday, 23 September, 2025 10:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -164,6 +164,15 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -950,7 +959,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 10:26 PM</t>
+    <t>Tuesday, 23 September, 2025 10:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1921,7 +1930,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1971,7 +1980,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1987,7 +1996,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1997,14 +2006,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2013,14 +2022,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2030,11 +2039,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2070,7 +2079,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2086,7 +2095,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2103,7 +2112,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2202,7 +2211,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2218,7 +2227,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2235,7 +2244,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2251,7 +2260,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2284,7 +2293,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2301,7 +2310,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2317,7 +2326,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2334,7 +2343,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2350,7 +2359,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2367,7 +2376,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2383,7 +2392,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2400,7 +2409,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2426,14 +2435,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2475,14 +2484,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2515,13 +2524,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2548,13 +2557,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2581,7 +2590,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2591,11 +2600,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2631,7 +2640,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2647,7 +2656,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2664,7 +2673,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2680,7 +2689,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2697,7 +2706,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2713,13 +2722,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2752,15 +2761,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2772,7 +2781,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2785,15 +2794,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2812,13 +2821,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2829,7 +2838,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2845,7 +2854,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2862,7 +2871,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2878,13 +2887,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2895,7 +2904,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2911,7 +2920,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2928,7 +2937,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2954,11 +2963,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2970,28 +2979,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3010,7 +3019,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3027,7 +3036,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3043,13 +3052,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3060,7 +3069,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3076,13 +3085,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3109,7 +3118,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3123,7 +3132,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3135,7 +3144,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3152,11 +3161,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3168,28 +3177,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3214,18 +3223,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3234,14 +3243,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3251,14 +3260,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3284,14 +3293,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3300,14 +3309,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3317,14 +3326,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3340,7 +3349,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3357,7 +3366,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3373,7 +3382,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3390,7 +3399,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3406,7 +3415,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3423,7 +3432,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3449,11 +3458,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3465,14 +3474,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3482,14 +3491,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3498,20 +3507,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3519,10 +3528,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3531,31 +3540,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3571,21 +3580,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3597,24 +3606,24 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3637,7 +3646,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3687,7 +3696,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3703,7 +3712,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3713,14 +3722,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3746,14 +3755,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3769,24 +3778,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3802,13 +3811,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3819,7 +3828,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3835,24 +3844,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3861,28 +3870,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3901,7 +3910,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3911,14 +3920,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3927,31 +3936,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3967,13 +3976,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3984,7 +3993,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4000,7 +4009,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4010,14 +4019,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4026,14 +4035,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4043,14 +4052,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4059,14 +4068,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4076,11 +4085,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4092,14 +4101,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4109,11 +4118,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4132,7 +4141,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4142,11 +4151,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4158,28 +4167,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4191,7 +4200,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4204,18 +4213,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4231,7 +4240,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4241,11 +4250,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4257,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4274,14 +4283,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4290,14 +4299,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4307,14 +4316,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4323,14 +4332,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4340,11 +4349,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4356,14 +4365,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>249</v>
+        <v>62</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4373,14 +4382,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4389,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4406,14 +4415,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4429,7 +4438,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4439,14 +4448,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4455,14 +4464,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4472,14 +4481,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4488,14 +4497,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4505,14 +4514,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4521,14 +4530,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4561,7 +4570,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4571,11 +4580,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4587,14 +4596,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4604,11 +4613,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>266</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4620,28 +4629,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>195</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4653,14 +4662,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4670,14 +4679,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4693,7 +4702,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4703,14 +4712,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4726,7 +4735,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4736,14 +4745,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4752,14 +4761,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4769,14 +4778,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4785,14 +4794,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4802,14 +4811,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4818,14 +4827,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4835,11 +4844,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4851,14 +4860,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4868,11 +4877,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4901,14 +4910,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>294</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4917,7 +4926,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4934,14 +4943,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q108" s="12">
         <v>297</v>
-      </c>
-      <c t="s" r="Q108" s="12">
-        <v>59</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4957,7 +4966,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4974,7 +4983,7 @@
         <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4990,7 +4999,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5000,7 +5009,7 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -5023,7 +5032,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5033,11 +5042,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5049,14 +5058,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>306</v>
+        <v>62</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5066,11 +5075,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5082,14 +5091,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5099,11 +5108,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5115,7 +5124,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5132,11 +5141,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5148,14 +5157,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5165,11 +5174,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5181,14 +5190,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5198,14 +5207,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5214,14 +5223,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5231,49 +5240,82 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>6777.165</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>313</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>314</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>315</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>267</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>27</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>109</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6811.8149999999996</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>316</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>317</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>318</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5837,10 +5879,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -959,7 +959,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 10:27 PM</t>
+    <t>Tuesday, 23 September, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -62,12 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALEJON WHITENING CREAM 50 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>290.0000</t>
+  </si>
+  <si>
     <t>AUGRAM 228.5MG/5ML PD. FOR ORAL SUSPENSION 60 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -296,6 +305,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>DOLLAR WHITE CREAM 5%</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>265.0000</t>
+  </si>
+  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -552,9 +570,6 @@
   </si>
   <si>
     <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>265.00</t>
   </si>
   <si>
     <t>0.0000</t>
@@ -1666,7 +1681,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1676,14 +1691,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1692,31 +1707,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1725,20 +1740,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1749,7 +1764,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1765,7 +1780,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1775,14 +1790,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1791,14 +1806,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1808,11 +1823,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>25</v>
@@ -1824,14 +1839,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1841,14 +1856,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1857,14 +1872,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1881,7 +1896,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1914,7 +1929,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1930,7 +1945,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1947,7 +1962,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1963,7 +1978,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1973,14 +1988,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1989,14 +2004,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2013,7 +2028,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2029,7 +2044,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2039,14 +2054,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2055,14 +2070,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2072,11 +2087,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2088,14 +2103,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2112,7 +2127,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2128,7 +2143,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2145,7 +2160,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2161,7 +2176,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2171,14 +2186,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2187,14 +2202,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2204,14 +2219,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2220,14 +2235,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2244,7 +2259,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2260,7 +2275,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2277,7 +2292,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2293,7 +2308,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2326,7 +2341,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2343,7 +2358,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2359,7 +2374,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2376,7 +2391,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2392,13 +2407,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2409,7 +2424,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2425,7 +2440,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2458,7 +2473,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2468,14 +2483,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2484,14 +2499,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2501,14 +2516,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2517,14 +2532,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2534,14 +2549,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2550,31 +2565,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2623,21 +2638,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2649,14 +2664,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2666,14 +2681,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2682,14 +2697,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2706,7 +2721,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2722,7 +2737,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2739,7 +2754,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2755,13 +2770,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2772,7 +2787,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2788,7 +2803,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2798,11 +2813,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2814,7 +2829,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2827,15 +2842,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2847,14 +2862,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2864,14 +2879,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2893,7 +2908,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2920,13 +2935,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2937,7 +2952,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2959,7 +2974,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2986,24 +3001,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3012,28 +3027,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3045,31 +3060,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3085,13 +3100,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3118,7 +3133,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3135,7 +3150,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3151,13 +3166,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3165,7 +3180,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3177,14 +3192,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3194,11 +3209,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3210,28 +3225,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3243,14 +3258,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3260,14 +3275,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3276,28 +3291,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3309,14 +3324,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3326,14 +3341,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3342,14 +3357,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3359,11 +3374,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3375,14 +3390,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3392,14 +3407,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3415,7 +3430,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3432,7 +3447,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3448,7 +3463,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3465,7 +3480,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3481,7 +3496,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3491,14 +3506,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3514,7 +3529,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3524,14 +3539,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3540,31 +3555,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3573,14 +3588,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3597,7 +3612,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3613,24 +3628,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3646,7 +3661,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3663,7 +3678,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3679,24 +3694,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3705,14 +3720,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3722,14 +3737,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3738,14 +3753,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3755,14 +3770,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3771,14 +3786,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3788,14 +3803,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3804,20 +3819,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3825,10 +3840,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>118</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3837,14 +3852,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,14 +3869,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3870,7 +3885,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3883,18 +3898,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3903,7 +3918,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3920,14 +3935,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,31 +3951,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3969,31 +3984,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4002,14 +4017,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,14 +4034,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4035,31 +4050,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4068,14 +4083,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4108,7 +4123,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,14 +4133,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4141,7 +4156,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4151,11 +4166,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4167,14 +4182,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4184,11 +4199,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4207,21 +4222,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4233,14 +4248,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,14 +4265,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4266,31 +4281,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4299,14 +4314,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,14 +4331,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4332,14 +4347,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4349,14 +4364,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4365,14 +4380,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>62</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4382,14 +4397,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4398,14 +4413,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4415,14 +4430,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4431,14 +4446,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>65</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4448,14 +4463,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4471,7 +4486,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,14 +4496,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4504,7 +4519,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,14 +4529,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4530,14 +4545,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4562,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>131</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4570,7 +4585,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4580,14 +4595,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4596,14 +4611,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4613,11 +4628,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4636,7 +4651,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4646,11 +4661,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4662,28 +4677,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4695,31 +4710,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4728,28 +4743,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4761,28 +4776,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4794,31 +4809,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4827,31 +4842,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4860,31 +4875,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4900,21 +4915,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4926,31 +4941,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>297</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4972,7 +4987,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -4983,7 +4998,7 @@
         <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4999,24 +5014,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5025,31 +5040,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>203</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5058,28 +5073,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5091,28 +5106,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5124,28 +5139,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5157,28 +5172,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5190,28 +5205,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>84</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5223,31 +5238,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5256,66 +5271,132 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>109</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6811.8149999999996</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>316</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>317</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>318</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>319</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>238</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>30</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>208</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>320</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>272</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>30</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>115</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>7366.8149999999996</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>321</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>322</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>323</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5884,10 +5965,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -458,6 +458,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>ISOTRETINOIN 20MG 30CAPS</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>122.7600</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
@@ -956,6 +965,9 @@
     <t>12:0</t>
   </si>
   <si>
+    <t>كريم فييت</t>
+  </si>
+  <si>
     <t>لزق بثور</t>
   </si>
   <si>
@@ -974,7 +986,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 10:35 PM</t>
+    <t>Tuesday, 23 September, 2025 10:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3001,7 +3013,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3018,7 +3030,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3034,7 +3046,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3051,7 +3063,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3077,11 +3089,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3093,28 +3105,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3133,7 +3145,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3150,7 +3162,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3166,13 +3178,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3183,7 +3195,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3199,13 +3211,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3232,7 +3244,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3246,7 +3258,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3258,7 +3270,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3275,11 +3287,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3291,28 +3303,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3337,18 +3349,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3357,14 +3369,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3374,14 +3386,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3390,14 +3402,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3407,14 +3419,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3423,14 +3435,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3440,14 +3452,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3463,7 +3475,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3480,7 +3492,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3496,7 +3508,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3506,14 +3518,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3522,14 +3534,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3539,14 +3551,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3572,11 +3584,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3588,14 +3600,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3605,14 +3617,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3621,20 +3633,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3642,10 +3654,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3654,31 +3666,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3694,21 +3706,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3720,24 +3732,24 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3760,7 +3772,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3810,7 +3822,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3826,7 +3838,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3836,14 +3848,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3869,14 +3881,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3892,24 +3904,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>124</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3925,13 +3937,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3942,7 +3954,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3958,24 +3970,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3984,28 +3996,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4024,7 +4036,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4034,14 +4046,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>71</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4050,31 +4062,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4090,13 +4102,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4107,7 +4119,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4123,7 +4135,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4133,14 +4145,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4149,14 +4161,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4166,14 +4178,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4182,14 +4194,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4199,11 +4211,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>52</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4215,14 +4227,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4232,11 +4244,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4255,7 +4267,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,11 +4277,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4281,28 +4293,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4314,7 +4326,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4327,18 +4339,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4354,7 +4366,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4364,11 +4376,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>28</v>
@@ -4380,14 +4392,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4397,14 +4409,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4413,14 +4425,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4430,14 +4442,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4446,14 +4458,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4467,7 +4479,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4479,14 +4491,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4496,14 +4508,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4512,14 +4524,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4529,14 +4541,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4552,7 +4564,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4562,14 +4574,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4578,14 +4590,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,14 +4607,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4611,14 +4623,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>265</v>
+        <v>83</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,14 +4640,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4644,14 +4656,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4684,7 +4696,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4694,11 +4706,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>111</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4710,14 +4722,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4727,11 +4739,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4743,28 +4755,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4776,14 +4788,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4793,14 +4805,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4816,7 +4828,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,14 +4838,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4849,7 +4861,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4859,14 +4871,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4875,14 +4887,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4892,14 +4904,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,14 +4920,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,14 +4937,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4941,14 +4953,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4958,11 +4970,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4974,14 +4986,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4991,11 +5003,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5024,14 +5036,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>212</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>302</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5040,7 +5052,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5057,14 +5069,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q111" s="12">
         <v>305</v>
-      </c>
-      <c t="s" r="Q111" s="12">
-        <v>65</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5080,7 +5092,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5097,7 +5109,7 @@
         <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5113,7 +5125,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,7 +5135,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5146,7 +5158,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5156,11 +5168,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5172,14 +5184,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>65</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,11 +5201,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5205,14 +5217,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>317</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5222,11 +5234,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5238,7 +5250,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5255,11 +5267,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>243</v>
+        <v>84</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5271,14 +5283,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5288,11 +5300,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>84</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5304,14 +5316,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5321,14 +5333,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5337,14 +5349,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5354,49 +5366,115 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>115</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>323</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>241</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>30</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>211</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
         <v>116</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>7366.8149999999996</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>321</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>322</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>323</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>324</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>275</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>30</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>115</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7574.5749999999998</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>325</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>326</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>327</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5975,10 +6053,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 10:49 PM</t>
+    <t>Tuesday, 23 September, 2025 11:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 11:07 PM</t>
+    <t>Tuesday, 23 September, 2025 11:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -710,6 +710,15 @@
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
+    <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>SORAL 30 MG 30CAPS</t>
   </si>
   <si>
@@ -986,7 +995,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 11:15 PM</t>
+    <t>Tuesday, 23 September, 2025 11:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4108,7 +4117,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4119,7 +4128,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4135,13 +4144,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4152,7 +4161,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4168,7 +4177,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4178,14 +4187,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4194,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>124</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4211,14 +4220,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4244,11 +4253,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4277,11 +4286,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4300,7 +4309,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4310,11 +4319,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4326,28 +4335,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4359,7 +4368,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4372,18 +4381,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4399,7 +4408,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4409,11 +4418,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>28</v>
@@ -4425,14 +4434,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4442,14 +4451,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>124</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4475,14 +4484,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4491,14 +4500,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4541,14 +4550,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>242</v>
+        <v>87</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4557,14 +4566,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4574,14 +4583,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4597,7 +4606,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>28</v>
+        <v>265</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4607,14 +4616,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4623,14 +4632,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4640,14 +4649,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4656,14 +4665,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>268</v>
+        <v>83</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4673,14 +4682,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4689,14 +4698,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4729,7 +4738,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,11 +4748,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>172</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>111</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4755,14 +4764,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4772,11 +4781,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4788,28 +4797,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4821,14 +4830,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4838,14 +4847,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4861,7 +4870,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4871,14 +4880,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4894,7 +4903,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4904,14 +4913,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4920,14 +4929,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4937,14 +4946,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4953,14 +4962,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4970,14 +4979,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4986,14 +4995,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,11 +5012,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5019,14 +5028,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5036,11 +5045,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5069,14 +5078,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>215</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>305</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5085,7 +5094,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5102,14 +5111,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>308</v>
-      </c>
-      <c t="s" r="Q112" s="12">
-        <v>65</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5125,7 +5134,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5142,7 +5151,7 @@
         <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5158,7 +5167,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5168,7 +5177,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>211</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5191,7 +5200,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>65</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,11 +5210,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>280</v>
+        <v>211</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5217,14 +5226,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>317</v>
+        <v>65</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,11 +5243,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5250,14 +5259,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>320</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5267,11 +5276,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5283,7 +5292,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5316,7 +5325,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5333,11 +5342,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>246</v>
+        <v>84</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5349,14 +5358,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5366,11 +5375,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5382,14 +5391,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5399,14 +5408,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>211</v>
+        <v>325</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5415,14 +5424,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5432,49 +5441,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>327</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>278</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>30</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>115</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>116</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7574.5749999999998</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>325</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>326</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>327</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7696.5749999999998</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>328</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>329</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>330</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6063,10 +6105,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -353,6 +353,24 @@
     <t>103.7400</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>EUTHYROX 100MCG 50 TAB.</t>
   </si>
   <si>
@@ -476,6 +494,21 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>KEINAN CREAM</t>
   </si>
   <si>
@@ -698,6 +731,12 @@
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>SALBOVENT 2MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -806,9 +845,6 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
     <t>14.4000</t>
   </si>
   <si>
@@ -995,7 +1031,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 11:16 PM</t>
+    <t>Tuesday, 23 September, 2025 11:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2626,7 +2662,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2636,14 +2672,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2659,13 +2695,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2676,7 +2712,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2725,21 +2761,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2751,14 +2787,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2768,14 +2804,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2784,14 +2820,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2808,7 +2844,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2824,7 +2860,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2841,7 +2877,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2857,13 +2893,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2874,7 +2910,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2890,7 +2926,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2900,11 +2936,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2916,7 +2952,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2933,11 +2969,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2949,14 +2985,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2966,14 +3002,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2995,7 +3031,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3022,13 +3058,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3055,13 +3091,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3072,7 +3108,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3088,7 +3124,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3105,7 +3141,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3121,7 +3157,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3131,14 +3167,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3147,14 +3183,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3164,14 +3200,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3180,31 +3216,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3213,7 +3249,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3230,11 +3266,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3246,14 +3282,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3263,11 +3299,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3279,14 +3315,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3296,14 +3332,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3312,28 +3348,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3345,28 +3381,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3378,14 +3414,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3395,14 +3431,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3411,14 +3447,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3428,11 +3464,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3444,31 +3480,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3477,14 +3513,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3494,14 +3530,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3510,14 +3546,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3527,14 +3563,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3543,14 +3579,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3560,14 +3596,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3576,14 +3612,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3593,11 +3629,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3609,14 +3645,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3626,14 +3662,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3642,14 +3678,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3659,14 +3695,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3675,31 +3711,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3708,14 +3744,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3725,14 +3761,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3741,28 +3777,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>28</v>
@@ -3774,31 +3810,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3807,14 +3843,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3824,11 +3860,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3840,31 +3876,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3873,14 +3909,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3890,14 +3926,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3906,14 +3942,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3923,11 +3959,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>28</v>
@@ -3939,7 +3975,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3952,18 +3988,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3972,14 +4008,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3989,14 +4025,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4005,31 +4041,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>85</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4038,31 +4074,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4071,14 +4107,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4088,14 +4124,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4104,28 +4140,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4137,31 +4173,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4170,14 +4206,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,11 +4223,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4203,14 +4239,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4220,14 +4256,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4236,14 +4272,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,11 +4289,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4269,31 +4305,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4302,14 +4338,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,11 +4355,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4335,14 +4371,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4352,14 +4388,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4368,28 +4404,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4401,7 +4437,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4418,14 +4454,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>52</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4434,14 +4470,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,14 +4487,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4467,14 +4503,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>65</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4484,11 +4520,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4500,31 +4536,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4533,14 +4569,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,11 +4586,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>28</v>
@@ -4566,14 +4602,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4583,14 +4619,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4599,14 +4635,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4616,14 +4652,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4632,14 +4668,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,14 +4685,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4665,14 +4701,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,11 +4718,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>28</v>
@@ -4698,14 +4734,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4715,11 +4751,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4731,14 +4767,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,14 +4784,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4764,14 +4800,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,14 +4817,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>111</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4797,14 +4833,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4814,14 +4850,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4830,28 +4866,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4863,31 +4899,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4896,28 +4932,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>183</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4936,24 +4972,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,14 +4998,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4979,14 +5015,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,14 +5031,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5012,14 +5048,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5028,14 +5064,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5045,11 +5081,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5061,14 +5097,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>304</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5085,7 +5121,7 @@
         <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5101,7 +5137,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5111,14 +5147,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>215</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>308</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5127,14 +5163,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>312</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5144,14 +5180,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5160,14 +5196,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5177,11 +5213,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5193,14 +5229,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,11 +5246,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>211</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5226,14 +5262,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,14 +5279,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5259,14 +5295,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,14 +5312,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>249</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5292,14 +5328,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,11 +5345,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>84</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>85</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5325,14 +5361,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5342,11 +5378,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>85</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5358,14 +5394,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5375,11 +5411,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5391,14 +5427,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5408,11 +5444,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5424,14 +5460,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5441,14 +5477,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5457,14 +5493,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5474,49 +5510,181 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>7696.5749999999998</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>328</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>329</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>330</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>335</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>18</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>30</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>262</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>336</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>290</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>30</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>337</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>338</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>257</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>30</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>222</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>339</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>290</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>30</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>121</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7927.4750000000004</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>340</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>341</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>342</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6110,10 +6278,30 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>290.0000</t>
   </si>
   <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>57.2000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>AUGRAM 228.5MG/5ML PD. FOR ORAL SUSPENSION 60 ML</t>
   </si>
   <si>
@@ -248,9 +263,6 @@
     <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
@@ -539,6 +551,12 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>LASIX 20MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>LEYLAC WHITENING EMULSION</t>
   </si>
   <si>
@@ -971,7 +989,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>21:0</t>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1019,19 +1037,28 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 11:17 PM</t>
+    <t>Tuesday, 23 September, 2025 11:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1738,7 +1765,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1748,14 +1775,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1764,14 +1791,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1781,14 +1808,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1804,13 +1831,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1821,7 +1848,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1830,31 +1857,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1863,14 +1890,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1880,14 +1907,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1896,14 +1923,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1913,14 +1940,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1929,14 +1956,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1946,14 +1973,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1962,14 +1989,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1979,14 +2006,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1995,7 +2022,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2012,14 +2039,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2028,14 +2055,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2045,14 +2072,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2061,14 +2088,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2078,14 +2105,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2094,14 +2121,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2111,14 +2138,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2127,14 +2154,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2144,14 +2171,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2160,14 +2187,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2177,11 +2204,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2193,14 +2220,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2210,14 +2237,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2226,14 +2253,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2243,14 +2270,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2259,14 +2286,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2276,14 +2303,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2292,14 +2319,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2316,7 +2343,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2332,7 +2359,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2342,14 +2369,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2358,14 +2385,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2375,14 +2402,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2391,14 +2418,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2408,11 +2435,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2424,14 +2451,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2441,14 +2468,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2457,31 +2484,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2490,28 +2517,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2523,14 +2550,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2540,14 +2567,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2556,14 +2583,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2573,14 +2600,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2589,14 +2616,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2606,14 +2633,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2622,14 +2649,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2639,14 +2666,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2655,14 +2682,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2672,14 +2699,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2688,14 +2715,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2705,14 +2732,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2721,14 +2748,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2738,14 +2765,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2754,28 +2781,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2787,28 +2814,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2820,14 +2847,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2860,7 +2887,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2870,14 +2897,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2886,14 +2913,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2903,14 +2930,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2919,14 +2946,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2936,14 +2963,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2952,28 +2979,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2985,7 +3012,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2998,15 +3025,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3018,7 +3045,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3031,15 +3058,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3051,31 +3078,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3084,14 +3111,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3101,14 +3128,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3117,31 +3144,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3150,31 +3177,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3183,20 +3210,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3207,7 +3234,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>165</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3216,20 +3243,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3240,7 +3267,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3249,7 +3276,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3262,15 +3289,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3282,28 +3309,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3315,14 +3342,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3332,14 +3359,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3348,31 +3375,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3381,14 +3408,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3398,14 +3425,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3421,13 +3448,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3435,7 +3462,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3447,14 +3474,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3464,11 +3491,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3480,28 +3507,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3513,14 +3540,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3530,14 +3557,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3546,28 +3573,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3579,14 +3606,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3596,14 +3623,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3612,14 +3639,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3629,11 +3656,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3645,14 +3672,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3662,14 +3689,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3685,7 +3712,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3695,14 +3722,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3711,14 +3738,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3728,14 +3755,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3744,14 +3771,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3761,14 +3788,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3777,14 +3804,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3801,7 +3828,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3817,24 +3844,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3850,7 +3877,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3860,14 +3887,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3876,31 +3903,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3909,14 +3936,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3926,14 +3953,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3942,31 +3969,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3982,7 +4009,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3999,7 +4026,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4015,7 +4042,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4025,14 +4052,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4048,7 +4075,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4058,14 +4085,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4081,24 +4108,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4114,7 +4141,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4124,14 +4151,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4153,18 +4180,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4173,14 +4200,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4190,14 +4217,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4206,28 +4233,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>88</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4239,7 +4266,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4256,14 +4283,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4272,14 +4299,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4289,11 +4316,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4305,31 +4332,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4345,7 +4372,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4378,24 +4405,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4404,14 +4431,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4421,11 +4448,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4437,14 +4464,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4454,14 +4481,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4470,14 +4497,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4487,11 +4514,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4503,14 +4530,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4520,11 +4547,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4536,28 +4563,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4569,14 +4596,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4586,14 +4613,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4602,31 +4629,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4635,14 +4662,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4652,14 +4679,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4668,14 +4695,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4685,14 +4712,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4701,14 +4728,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4718,14 +4745,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4734,14 +4761,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>134</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4751,14 +4778,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>258</v>
+        <v>91</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4767,14 +4794,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4784,14 +4811,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4800,14 +4827,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>28</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4817,14 +4844,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4833,14 +4860,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4850,14 +4877,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4866,14 +4893,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>283</v>
+        <v>33</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4883,14 +4910,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>141</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4899,14 +4926,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4916,14 +4943,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4932,14 +4959,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4949,11 +4976,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4965,14 +4992,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4982,11 +5009,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4998,28 +5025,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>189</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5038,24 +5065,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5064,20 +5091,20 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5110,15 +5137,15 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5130,31 +5157,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5163,31 +5190,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5196,31 +5223,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5229,28 +5256,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5262,31 +5289,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>320</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5295,7 +5322,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5308,18 +5335,18 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5328,31 +5355,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q118" s="12">
         <v>326</v>
-      </c>
-      <c t="s" r="Q118" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5368,24 +5395,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>328</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>222</v>
+        <v>328</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5401,21 +5428,21 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5427,28 +5454,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>263</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5460,28 +5487,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>85</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5493,28 +5520,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>84</v>
+        <v>268</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>85</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5526,7 +5553,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5539,15 +5566,15 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5559,28 +5586,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>337</v>
+        <v>88</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5592,31 +5619,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>154</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5625,66 +5652,165 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>121</v>
+        <v>344</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
         <v>122</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7927.4750000000004</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>340</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>341</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
-        <v>342</v>
-      </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>345</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>346</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>35</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>249</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>347</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>263</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>35</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>228</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>348</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>296</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>35</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>125</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>8044.5550000000003</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>349</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>350</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>351</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6298,10 +6424,25 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -1058,7 +1058,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 11:19 PM</t>
+    <t>Tuesday, 23 September, 2025 11:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -920,6 +920,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -1043,9 +1052,6 @@
     <t>مبرد قدم</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1058,7 +1064,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 11:32 PM</t>
+    <t>Tuesday, 23 September, 2025 11:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5141,14 +5147,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5164,7 +5170,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5174,14 +5180,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5197,7 +5203,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5207,14 +5213,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5223,14 +5229,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5240,14 +5246,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5256,14 +5262,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5273,14 +5279,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5289,14 +5295,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5306,11 +5312,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5322,14 +5328,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5339,11 +5345,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5372,14 +5378,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>326</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5388,7 +5394,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5405,14 +5411,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q119" s="12">
         <v>329</v>
-      </c>
-      <c t="s" r="Q119" s="12">
-        <v>70</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5428,7 +5434,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5445,7 +5451,7 @@
         <v>332</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5461,7 +5467,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>334</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5471,7 +5477,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5494,7 +5500,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>70</v>
+        <v>337</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5504,11 +5510,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5520,14 +5526,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>338</v>
+        <v>70</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5537,11 +5543,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5553,14 +5559,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>18</v>
+        <v>341</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5570,11 +5576,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5586,7 +5592,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5619,7 +5625,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5636,14 +5642,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>342</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5652,14 +5658,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5669,14 +5675,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>229</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5685,14 +5691,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5702,11 +5708,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5725,7 +5731,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5735,14 +5741,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>158</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5751,14 +5757,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5768,49 +5774,82 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>350</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>296</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>35</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>125</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
         <v>126</v>
       </c>
-      <c t="s" r="Q130" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>8044.5550000000003</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>349</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>350</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>8059.5550000000003</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
         <v>351</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>352</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>353</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6439,10 +6478,15 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -1064,7 +1064,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Tuesday, 23 September, 2025 11:43 PM</t>
+    <t>Tuesday, 23 September, 2025 11:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-23_00-00.xlsx
+++ b/DaySale_2025-09-23_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 12:03 AM</t>
+    <t>Wednesday, 24 September, 2025 12:19 AM</t>
   </si>
   <si>
     <t>1/1</t>
